--- a/Gantt-Chart-HAMPEDevs.xlsx
+++ b/Gantt-Chart-HAMPEDevs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE7D0ADA-0B35-4C83-8AE1-0AD8AB0C9FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B262BDD4-FCFB-4602-B64B-8C4A9920A6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="90">
   <si>
     <t>DEPARTMENT</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>START DATE</t>
-  </si>
-  <si>
-    <t>DUE DATE</t>
   </si>
   <si>
     <t>STATUS</t>
@@ -265,12 +262,6 @@
     <t>Progress 1, 2, 3</t>
   </si>
   <si>
-    <t>Progress 4, 5, 6</t>
-  </si>
-  <si>
-    <t>Progress 7, 8</t>
-  </si>
-  <si>
     <t>01/24/2026</t>
   </si>
   <si>
@@ -286,16 +277,19 @@
     <t>01/14/2026</t>
   </si>
   <si>
-    <t>02/14/2026</t>
-  </si>
-  <si>
     <t>01/10/2026</t>
   </si>
   <si>
     <t>01/17/2026</t>
   </si>
   <si>
-    <t>02/14/2025</t>
+    <t>END DATE</t>
+  </si>
+  <si>
+    <t>Progress 4,           5, 6 is In progress</t>
+  </si>
+  <si>
+    <t>Progress 7,           8 is In progress</t>
   </si>
 </sst>
 </file>
@@ -833,7 +827,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -905,45 +899,6 @@
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="7" fillId="20" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -960,20 +915,8 @@
     <xf numFmtId="166" fontId="7" fillId="24" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="4" fontId="7" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="25" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="25" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="25" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1003,6 +946,54 @@
     </xf>
     <xf numFmtId="4" fontId="7" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="25" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="25" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="25" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1290,8 +1281,8 @@
   </sheetPr>
   <dimension ref="A1:EO1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="95" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="95" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1318,16 +1309,16 @@
     <row r="1" spans="1:132" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -1407,31 +1398,31 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
-      <c r="D3" s="50">
+      <c r="D3" s="75">
         <v>1</v>
       </c>
-      <c r="E3" s="51"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="53" t="s">
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55" t="s">
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="57"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="82"/>
       <c r="S3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
@@ -1459,40 +1450,40 @@
       <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="76"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="57"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="82"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W4" s="1"/>
       <c r="Y4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z4" s="1"/>
       <c r="AB4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
@@ -1552,191 +1543,191 @@
     </row>
     <row r="6" spans="1:132" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="60" t="s">
+      <c r="G6" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="45" t="s">
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="45" t="s">
+      <c r="V6" s="67"/>
+      <c r="W6" s="67"/>
+      <c r="X6" s="67"/>
+      <c r="Y6" s="67"/>
+      <c r="Z6" s="67"/>
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="V6" s="46"/>
-      <c r="W6" s="46"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="46"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="45" t="s">
+      <c r="AC6" s="67"/>
+      <c r="AD6" s="67"/>
+      <c r="AE6" s="67"/>
+      <c r="AF6" s="67"/>
+      <c r="AG6" s="67"/>
+      <c r="AH6" s="68"/>
+      <c r="AI6" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="AC6" s="46"/>
-      <c r="AD6" s="46"/>
-      <c r="AE6" s="46"/>
-      <c r="AF6" s="46"/>
-      <c r="AG6" s="46"/>
-      <c r="AH6" s="47"/>
-      <c r="AI6" s="45" t="s">
-        <v>13</v>
+      <c r="AJ6" s="67"/>
+      <c r="AK6" s="67"/>
+      <c r="AL6" s="67"/>
+      <c r="AM6" s="67"/>
+      <c r="AN6" s="67"/>
+      <c r="AO6" s="68"/>
+      <c r="AP6" s="66" t="s">
+        <v>30</v>
       </c>
-      <c r="AJ6" s="46"/>
-      <c r="AK6" s="46"/>
-      <c r="AL6" s="46"/>
-      <c r="AM6" s="46"/>
-      <c r="AN6" s="46"/>
-      <c r="AO6" s="47"/>
-      <c r="AP6" s="45" t="s">
+      <c r="AQ6" s="67"/>
+      <c r="AR6" s="67"/>
+      <c r="AS6" s="67"/>
+      <c r="AT6" s="67"/>
+      <c r="AU6" s="67"/>
+      <c r="AV6" s="68"/>
+      <c r="AW6" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="AQ6" s="46"/>
-      <c r="AR6" s="46"/>
-      <c r="AS6" s="46"/>
-      <c r="AT6" s="46"/>
-      <c r="AU6" s="46"/>
-      <c r="AV6" s="47"/>
-      <c r="AW6" s="45" t="s">
+      <c r="AX6" s="67"/>
+      <c r="AY6" s="67"/>
+      <c r="AZ6" s="67"/>
+      <c r="BA6" s="67"/>
+      <c r="BB6" s="67"/>
+      <c r="BC6" s="68"/>
+      <c r="BD6" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="AX6" s="46"/>
-      <c r="AY6" s="46"/>
-      <c r="AZ6" s="46"/>
-      <c r="BA6" s="46"/>
-      <c r="BB6" s="46"/>
-      <c r="BC6" s="47"/>
-      <c r="BD6" s="45" t="s">
+      <c r="BE6" s="67"/>
+      <c r="BF6" s="67"/>
+      <c r="BG6" s="67"/>
+      <c r="BH6" s="67"/>
+      <c r="BI6" s="67"/>
+      <c r="BJ6" s="68"/>
+      <c r="BK6" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="BE6" s="46"/>
-      <c r="BF6" s="46"/>
-      <c r="BG6" s="46"/>
-      <c r="BH6" s="46"/>
-      <c r="BI6" s="46"/>
-      <c r="BJ6" s="47"/>
-      <c r="BK6" s="45" t="s">
+      <c r="BL6" s="67"/>
+      <c r="BM6" s="67"/>
+      <c r="BN6" s="67"/>
+      <c r="BO6" s="67"/>
+      <c r="BP6" s="67"/>
+      <c r="BQ6" s="68"/>
+      <c r="BR6" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="BL6" s="46"/>
-      <c r="BM6" s="46"/>
-      <c r="BN6" s="46"/>
-      <c r="BO6" s="46"/>
-      <c r="BP6" s="46"/>
-      <c r="BQ6" s="47"/>
-      <c r="BR6" s="45" t="s">
+      <c r="BS6" s="67"/>
+      <c r="BT6" s="67"/>
+      <c r="BU6" s="67"/>
+      <c r="BV6" s="67"/>
+      <c r="BW6" s="67"/>
+      <c r="BX6" s="68"/>
+      <c r="BY6" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="BS6" s="46"/>
-      <c r="BT6" s="46"/>
-      <c r="BU6" s="46"/>
-      <c r="BV6" s="46"/>
-      <c r="BW6" s="46"/>
-      <c r="BX6" s="47"/>
-      <c r="BY6" s="45" t="s">
+      <c r="BZ6" s="67"/>
+      <c r="CA6" s="67"/>
+      <c r="CB6" s="67"/>
+      <c r="CC6" s="67"/>
+      <c r="CD6" s="67"/>
+      <c r="CE6" s="68"/>
+      <c r="CF6" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="BZ6" s="46"/>
-      <c r="CA6" s="46"/>
-      <c r="CB6" s="46"/>
-      <c r="CC6" s="46"/>
-      <c r="CD6" s="46"/>
-      <c r="CE6" s="47"/>
-      <c r="CF6" s="45" t="s">
+      <c r="CG6" s="67"/>
+      <c r="CH6" s="67"/>
+      <c r="CI6" s="67"/>
+      <c r="CJ6" s="67"/>
+      <c r="CK6" s="67"/>
+      <c r="CL6" s="68"/>
+      <c r="CM6" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="CG6" s="46"/>
-      <c r="CH6" s="46"/>
-      <c r="CI6" s="46"/>
-      <c r="CJ6" s="46"/>
-      <c r="CK6" s="46"/>
-      <c r="CL6" s="47"/>
-      <c r="CM6" s="45" t="s">
+      <c r="CN6" s="67"/>
+      <c r="CO6" s="67"/>
+      <c r="CP6" s="67"/>
+      <c r="CQ6" s="67"/>
+      <c r="CR6" s="67"/>
+      <c r="CS6" s="68"/>
+      <c r="CT6" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="CN6" s="46"/>
-      <c r="CO6" s="46"/>
-      <c r="CP6" s="46"/>
-      <c r="CQ6" s="46"/>
-      <c r="CR6" s="46"/>
-      <c r="CS6" s="47"/>
-      <c r="CT6" s="45" t="s">
+      <c r="CU6" s="67"/>
+      <c r="CV6" s="67"/>
+      <c r="CW6" s="67"/>
+      <c r="CX6" s="67"/>
+      <c r="CY6" s="67"/>
+      <c r="CZ6" s="68"/>
+      <c r="DA6" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="CU6" s="46"/>
-      <c r="CV6" s="46"/>
-      <c r="CW6" s="46"/>
-      <c r="CX6" s="46"/>
-      <c r="CY6" s="46"/>
-      <c r="CZ6" s="47"/>
-      <c r="DA6" s="45" t="s">
+      <c r="DB6" s="67"/>
+      <c r="DC6" s="67"/>
+      <c r="DD6" s="67"/>
+      <c r="DE6" s="67"/>
+      <c r="DF6" s="67"/>
+      <c r="DG6" s="68"/>
+      <c r="DH6" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="DB6" s="46"/>
-      <c r="DC6" s="46"/>
-      <c r="DD6" s="46"/>
-      <c r="DE6" s="46"/>
-      <c r="DF6" s="46"/>
-      <c r="DG6" s="47"/>
-      <c r="DH6" s="45" t="s">
+      <c r="DI6" s="67"/>
+      <c r="DJ6" s="67"/>
+      <c r="DK6" s="67"/>
+      <c r="DL6" s="67"/>
+      <c r="DM6" s="67"/>
+      <c r="DN6" s="68"/>
+      <c r="DO6" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="DI6" s="46"/>
-      <c r="DJ6" s="46"/>
-      <c r="DK6" s="46"/>
-      <c r="DL6" s="46"/>
-      <c r="DM6" s="46"/>
-      <c r="DN6" s="47"/>
-      <c r="DO6" s="45" t="s">
+      <c r="DP6" s="67"/>
+      <c r="DQ6" s="67"/>
+      <c r="DR6" s="67"/>
+      <c r="DS6" s="67"/>
+      <c r="DT6" s="67"/>
+      <c r="DU6" s="68"/>
+      <c r="DV6" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="DP6" s="46"/>
-      <c r="DQ6" s="46"/>
-      <c r="DR6" s="46"/>
-      <c r="DS6" s="46"/>
-      <c r="DT6" s="46"/>
-      <c r="DU6" s="47"/>
-      <c r="DV6" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="DW6" s="46"/>
-      <c r="DX6" s="46"/>
-      <c r="DY6" s="46"/>
-      <c r="DZ6" s="46"/>
-      <c r="EA6" s="46"/>
-      <c r="EB6" s="47"/>
+      <c r="DW6" s="67"/>
+      <c r="DX6" s="67"/>
+      <c r="DY6" s="67"/>
+      <c r="DZ6" s="67"/>
+      <c r="EA6" s="67"/>
+      <c r="EB6" s="68"/>
     </row>
     <row r="7" spans="1:132" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="6">
         <v>45990</v>
       </c>
@@ -2122,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -2260,24 +2251,24 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="62" t="s">
-        <v>14</v>
+      <c r="F9" s="45" t="s">
+        <v>13</v>
       </c>
       <c r="G9" s="31"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
       <c r="N9" s="29"/>
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
@@ -2293,28 +2284,28 @@
       <c r="Z9" s="12"/>
       <c r="AA9" s="12"/>
       <c r="AB9" s="13"/>
-      <c r="AC9" s="70" t="s">
-        <v>77</v>
+      <c r="AC9" s="63" t="s">
+        <v>76</v>
       </c>
-      <c r="AD9" s="71"/>
-      <c r="AE9" s="71"/>
-      <c r="AF9" s="71"/>
-      <c r="AG9" s="71"/>
-      <c r="AH9" s="71"/>
-      <c r="AI9" s="71"/>
-      <c r="AJ9" s="71"/>
-      <c r="AK9" s="71"/>
-      <c r="AL9" s="71"/>
-      <c r="AM9" s="71"/>
-      <c r="AN9" s="71"/>
-      <c r="AO9" s="71"/>
-      <c r="AP9" s="71"/>
-      <c r="AQ9" s="71"/>
-      <c r="AR9" s="71"/>
-      <c r="AS9" s="71"/>
-      <c r="AT9" s="71"/>
-      <c r="AU9" s="71"/>
-      <c r="AV9" s="72"/>
+      <c r="AD9" s="64"/>
+      <c r="AE9" s="64"/>
+      <c r="AF9" s="64"/>
+      <c r="AG9" s="64"/>
+      <c r="AH9" s="64"/>
+      <c r="AI9" s="64"/>
+      <c r="AJ9" s="64"/>
+      <c r="AK9" s="64"/>
+      <c r="AL9" s="64"/>
+      <c r="AM9" s="64"/>
+      <c r="AN9" s="64"/>
+      <c r="AO9" s="64"/>
+      <c r="AP9" s="64"/>
+      <c r="AQ9" s="64"/>
+      <c r="AR9" s="64"/>
+      <c r="AS9" s="64"/>
+      <c r="AT9" s="64"/>
+      <c r="AU9" s="64"/>
+      <c r="AV9" s="65"/>
       <c r="AW9" s="19"/>
       <c r="AX9" s="12"/>
       <c r="AY9" s="12"/>
@@ -2406,24 +2397,24 @@
         <v>1.2</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="62" t="s">
-        <v>14</v>
+      <c r="F10" s="45" t="s">
+        <v>13</v>
       </c>
       <c r="G10" s="31"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
       <c r="N10" s="30"/>
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
@@ -2439,28 +2430,28 @@
       <c r="Z10" s="12"/>
       <c r="AA10" s="12"/>
       <c r="AB10" s="13"/>
-      <c r="AC10" s="70" t="s">
-        <v>77</v>
+      <c r="AC10" s="63" t="s">
+        <v>76</v>
       </c>
-      <c r="AD10" s="71"/>
-      <c r="AE10" s="71"/>
-      <c r="AF10" s="71"/>
-      <c r="AG10" s="71"/>
-      <c r="AH10" s="71"/>
-      <c r="AI10" s="71"/>
-      <c r="AJ10" s="71"/>
-      <c r="AK10" s="71"/>
-      <c r="AL10" s="71"/>
-      <c r="AM10" s="71"/>
-      <c r="AN10" s="71"/>
-      <c r="AO10" s="71"/>
-      <c r="AP10" s="71"/>
-      <c r="AQ10" s="71"/>
-      <c r="AR10" s="71"/>
-      <c r="AS10" s="71"/>
-      <c r="AT10" s="71"/>
-      <c r="AU10" s="71"/>
-      <c r="AV10" s="72"/>
+      <c r="AD10" s="64"/>
+      <c r="AE10" s="64"/>
+      <c r="AF10" s="64"/>
+      <c r="AG10" s="64"/>
+      <c r="AH10" s="64"/>
+      <c r="AI10" s="64"/>
+      <c r="AJ10" s="64"/>
+      <c r="AK10" s="64"/>
+      <c r="AL10" s="64"/>
+      <c r="AM10" s="64"/>
+      <c r="AN10" s="64"/>
+      <c r="AO10" s="64"/>
+      <c r="AP10" s="64"/>
+      <c r="AQ10" s="64"/>
+      <c r="AR10" s="64"/>
+      <c r="AS10" s="64"/>
+      <c r="AT10" s="64"/>
+      <c r="AU10" s="64"/>
+      <c r="AV10" s="65"/>
       <c r="AW10" s="12"/>
       <c r="AX10" s="12"/>
       <c r="AY10" s="12"/>
@@ -2552,24 +2543,24 @@
         <v>1.3</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="62" t="s">
-        <v>14</v>
+      <c r="F11" s="45" t="s">
+        <v>13</v>
       </c>
       <c r="G11" s="31"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
       <c r="N11" s="19"/>
       <c r="O11" s="29"/>
       <c r="P11" s="29"/>
@@ -2585,28 +2576,28 @@
       <c r="Z11" s="12"/>
       <c r="AA11" s="12"/>
       <c r="AB11" s="13"/>
-      <c r="AC11" s="70" t="s">
-        <v>77</v>
+      <c r="AC11" s="63" t="s">
+        <v>76</v>
       </c>
-      <c r="AD11" s="71"/>
-      <c r="AE11" s="71"/>
-      <c r="AF11" s="71"/>
-      <c r="AG11" s="71"/>
-      <c r="AH11" s="71"/>
-      <c r="AI11" s="71"/>
-      <c r="AJ11" s="71"/>
-      <c r="AK11" s="71"/>
-      <c r="AL11" s="71"/>
-      <c r="AM11" s="71"/>
-      <c r="AN11" s="71"/>
-      <c r="AO11" s="71"/>
-      <c r="AP11" s="71"/>
-      <c r="AQ11" s="71"/>
-      <c r="AR11" s="71"/>
-      <c r="AS11" s="71"/>
-      <c r="AT11" s="71"/>
-      <c r="AU11" s="71"/>
-      <c r="AV11" s="72"/>
+      <c r="AD11" s="64"/>
+      <c r="AE11" s="64"/>
+      <c r="AF11" s="64"/>
+      <c r="AG11" s="64"/>
+      <c r="AH11" s="64"/>
+      <c r="AI11" s="64"/>
+      <c r="AJ11" s="64"/>
+      <c r="AK11" s="64"/>
+      <c r="AL11" s="64"/>
+      <c r="AM11" s="64"/>
+      <c r="AN11" s="64"/>
+      <c r="AO11" s="64"/>
+      <c r="AP11" s="64"/>
+      <c r="AQ11" s="64"/>
+      <c r="AR11" s="64"/>
+      <c r="AS11" s="64"/>
+      <c r="AT11" s="64"/>
+      <c r="AU11" s="64"/>
+      <c r="AV11" s="65"/>
       <c r="AW11" s="12"/>
       <c r="AX11" s="12"/>
       <c r="AY11" s="12"/>
@@ -2698,24 +2689,22 @@
         <v>1.4</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
-      <c r="D12" s="64" t="s">
-        <v>78</v>
+      <c r="D12" s="47" t="s">
+        <v>77</v>
       </c>
-      <c r="E12" s="66" t="s">
-        <v>79</v>
+      <c r="E12" s="49"/>
+      <c r="F12" s="62" t="s">
+        <v>14</v>
       </c>
-      <c r="F12" s="83" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
       <c r="N12" s="19"/>
       <c r="O12" s="35"/>
       <c r="Q12" s="30"/>
@@ -2723,36 +2712,36 @@
       <c r="S12" s="30"/>
       <c r="T12" s="30"/>
       <c r="U12" s="31"/>
-      <c r="V12" s="65"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="65"/>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="65"/>
-      <c r="AA12" s="65"/>
-      <c r="AB12" s="65"/>
-      <c r="AC12" s="70" t="s">
-        <v>77</v>
+      <c r="V12" s="48"/>
+      <c r="W12" s="48"/>
+      <c r="X12" s="48"/>
+      <c r="Y12" s="48"/>
+      <c r="Z12" s="48"/>
+      <c r="AA12" s="48"/>
+      <c r="AB12" s="48"/>
+      <c r="AC12" s="63" t="s">
+        <v>76</v>
       </c>
-      <c r="AD12" s="71"/>
-      <c r="AE12" s="71"/>
-      <c r="AF12" s="71"/>
-      <c r="AG12" s="71"/>
-      <c r="AH12" s="71"/>
-      <c r="AI12" s="71"/>
-      <c r="AJ12" s="71"/>
-      <c r="AK12" s="71"/>
-      <c r="AL12" s="71"/>
-      <c r="AM12" s="71"/>
-      <c r="AN12" s="71"/>
-      <c r="AO12" s="71"/>
-      <c r="AP12" s="71"/>
-      <c r="AQ12" s="71"/>
-      <c r="AR12" s="71"/>
-      <c r="AS12" s="71"/>
-      <c r="AT12" s="71"/>
-      <c r="AU12" s="71"/>
-      <c r="AV12" s="72"/>
-      <c r="AW12" s="76"/>
+      <c r="AD12" s="64"/>
+      <c r="AE12" s="64"/>
+      <c r="AF12" s="64"/>
+      <c r="AG12" s="64"/>
+      <c r="AH12" s="64"/>
+      <c r="AI12" s="64"/>
+      <c r="AJ12" s="64"/>
+      <c r="AK12" s="64"/>
+      <c r="AL12" s="64"/>
+      <c r="AM12" s="64"/>
+      <c r="AN12" s="64"/>
+      <c r="AO12" s="64"/>
+      <c r="AP12" s="64"/>
+      <c r="AQ12" s="64"/>
+      <c r="AR12" s="64"/>
+      <c r="AS12" s="64"/>
+      <c r="AT12" s="64"/>
+      <c r="AU12" s="64"/>
+      <c r="AV12" s="65"/>
+      <c r="AW12" s="55"/>
       <c r="AX12" s="12"/>
       <c r="AY12" s="12"/>
       <c r="AZ12" s="12"/>
@@ -2843,24 +2832,22 @@
         <v>1.5</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
-      <c r="D13" s="64" t="s">
-        <v>83</v>
+      <c r="D13" s="47" t="s">
+        <v>80</v>
       </c>
-      <c r="E13" s="66" t="s">
-        <v>65</v>
+      <c r="E13" s="49"/>
+      <c r="F13" s="62" t="s">
+        <v>14</v>
       </c>
-      <c r="F13" s="83" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
       <c r="N13" s="19"/>
       <c r="O13" s="36"/>
       <c r="Q13" s="29"/>
@@ -2875,28 +2862,28 @@
       <c r="Z13" s="12"/>
       <c r="AA13" s="12"/>
       <c r="AB13" s="13"/>
-      <c r="AC13" s="70" t="s">
-        <v>77</v>
+      <c r="AC13" s="63" t="s">
+        <v>76</v>
       </c>
-      <c r="AD13" s="71"/>
-      <c r="AE13" s="71"/>
-      <c r="AF13" s="71"/>
-      <c r="AG13" s="71"/>
-      <c r="AH13" s="71"/>
-      <c r="AI13" s="71"/>
-      <c r="AJ13" s="71"/>
-      <c r="AK13" s="71"/>
-      <c r="AL13" s="71"/>
-      <c r="AM13" s="71"/>
-      <c r="AN13" s="71"/>
-      <c r="AO13" s="71"/>
-      <c r="AP13" s="71"/>
-      <c r="AQ13" s="71"/>
-      <c r="AR13" s="71"/>
-      <c r="AS13" s="71"/>
-      <c r="AT13" s="71"/>
-      <c r="AU13" s="71"/>
-      <c r="AV13" s="72"/>
+      <c r="AD13" s="64"/>
+      <c r="AE13" s="64"/>
+      <c r="AF13" s="64"/>
+      <c r="AG13" s="64"/>
+      <c r="AH13" s="64"/>
+      <c r="AI13" s="64"/>
+      <c r="AJ13" s="64"/>
+      <c r="AK13" s="64"/>
+      <c r="AL13" s="64"/>
+      <c r="AM13" s="64"/>
+      <c r="AN13" s="64"/>
+      <c r="AO13" s="64"/>
+      <c r="AP13" s="64"/>
+      <c r="AQ13" s="64"/>
+      <c r="AR13" s="64"/>
+      <c r="AS13" s="64"/>
+      <c r="AT13" s="64"/>
+      <c r="AU13" s="64"/>
+      <c r="AV13" s="65"/>
       <c r="AW13" s="12"/>
       <c r="AX13" s="12"/>
       <c r="AY13" s="12"/>
@@ -2912,12 +2899,12 @@
       <c r="BI13" s="12"/>
       <c r="BJ13" s="12"/>
       <c r="BK13" s="31"/>
-      <c r="BL13" s="65"/>
-      <c r="BM13" s="65"/>
-      <c r="BN13" s="65"/>
-      <c r="BO13" s="65"/>
-      <c r="BP13" s="65"/>
-      <c r="BQ13" s="65"/>
+      <c r="BL13" s="48"/>
+      <c r="BM13" s="48"/>
+      <c r="BN13" s="48"/>
+      <c r="BO13" s="48"/>
+      <c r="BP13" s="48"/>
+      <c r="BQ13" s="48"/>
       <c r="BR13" s="12"/>
       <c r="BS13" s="12"/>
       <c r="BT13" s="12"/>
@@ -2988,46 +2975,46 @@
         <v>1.6</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="62" t="s">
-        <v>14</v>
+      <c r="F14" s="45" t="s">
+        <v>13</v>
       </c>
       <c r="G14" s="31"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
-      <c r="AC14" s="70" t="s">
-        <v>77</v>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="AC14" s="63" t="s">
+        <v>76</v>
       </c>
-      <c r="AD14" s="71"/>
-      <c r="AE14" s="71"/>
-      <c r="AF14" s="71"/>
-      <c r="AG14" s="71"/>
-      <c r="AH14" s="71"/>
-      <c r="AI14" s="71"/>
-      <c r="AJ14" s="71"/>
-      <c r="AK14" s="71"/>
-      <c r="AL14" s="71"/>
-      <c r="AM14" s="71"/>
-      <c r="AN14" s="71"/>
-      <c r="AO14" s="71"/>
-      <c r="AP14" s="71"/>
-      <c r="AQ14" s="71"/>
-      <c r="AR14" s="71"/>
-      <c r="AS14" s="71"/>
-      <c r="AT14" s="71"/>
-      <c r="AU14" s="71"/>
-      <c r="AV14" s="72"/>
+      <c r="AD14" s="64"/>
+      <c r="AE14" s="64"/>
+      <c r="AF14" s="64"/>
+      <c r="AG14" s="64"/>
+      <c r="AH14" s="64"/>
+      <c r="AI14" s="64"/>
+      <c r="AJ14" s="64"/>
+      <c r="AK14" s="64"/>
+      <c r="AL14" s="64"/>
+      <c r="AM14" s="64"/>
+      <c r="AN14" s="64"/>
+      <c r="AO14" s="64"/>
+      <c r="AP14" s="64"/>
+      <c r="AQ14" s="64"/>
+      <c r="AR14" s="64"/>
+      <c r="AS14" s="64"/>
+      <c r="AT14" s="64"/>
+      <c r="AU14" s="64"/>
+      <c r="AV14" s="65"/>
     </row>
     <row r="15" spans="1:132" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -3035,46 +3022,46 @@
         <v>1.7</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="62" t="s">
-        <v>14</v>
+      <c r="F15" s="45" t="s">
+        <v>13</v>
       </c>
       <c r="G15" s="31"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="AC15" s="70" t="s">
-        <v>77</v>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="AC15" s="63" t="s">
+        <v>76</v>
       </c>
-      <c r="AD15" s="71"/>
-      <c r="AE15" s="71"/>
-      <c r="AF15" s="71"/>
-      <c r="AG15" s="71"/>
-      <c r="AH15" s="71"/>
-      <c r="AI15" s="71"/>
-      <c r="AJ15" s="71"/>
-      <c r="AK15" s="71"/>
-      <c r="AL15" s="71"/>
-      <c r="AM15" s="71"/>
-      <c r="AN15" s="71"/>
-      <c r="AO15" s="71"/>
-      <c r="AP15" s="71"/>
-      <c r="AQ15" s="71"/>
-      <c r="AR15" s="71"/>
-      <c r="AS15" s="71"/>
-      <c r="AT15" s="71"/>
-      <c r="AU15" s="71"/>
-      <c r="AV15" s="72"/>
+      <c r="AD15" s="64"/>
+      <c r="AE15" s="64"/>
+      <c r="AF15" s="64"/>
+      <c r="AG15" s="64"/>
+      <c r="AH15" s="64"/>
+      <c r="AI15" s="64"/>
+      <c r="AJ15" s="64"/>
+      <c r="AK15" s="64"/>
+      <c r="AL15" s="64"/>
+      <c r="AM15" s="64"/>
+      <c r="AN15" s="64"/>
+      <c r="AO15" s="64"/>
+      <c r="AP15" s="64"/>
+      <c r="AQ15" s="64"/>
+      <c r="AR15" s="64"/>
+      <c r="AS15" s="64"/>
+      <c r="AT15" s="64"/>
+      <c r="AU15" s="64"/>
+      <c r="AV15" s="65"/>
     </row>
     <row r="16" spans="1:132" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -3082,75 +3069,75 @@
         <v>1.8</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
-      <c r="D16" s="64" t="s">
-        <v>75</v>
+      <c r="D16" s="47" t="s">
+        <v>74</v>
       </c>
-      <c r="E16" s="66" t="s">
-        <v>65</v>
+      <c r="E16" s="49" t="s">
+        <v>64</v>
       </c>
-      <c r="F16" s="62" t="s">
-        <v>14</v>
+      <c r="F16" s="45" t="s">
+        <v>13</v>
       </c>
       <c r="H16" s="31"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="65"/>
-      <c r="S16" s="65"/>
-      <c r="T16" s="65"/>
-      <c r="U16" s="65"/>
-      <c r="V16" s="65"/>
-      <c r="W16" s="65"/>
-      <c r="X16" s="65"/>
-      <c r="Y16" s="65"/>
-      <c r="Z16" s="65"/>
-      <c r="AA16" s="65"/>
-      <c r="AB16" s="65"/>
-      <c r="AC16" s="70" t="s">
-        <v>77</v>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="48"/>
+      <c r="Y16" s="48"/>
+      <c r="Z16" s="48"/>
+      <c r="AA16" s="48"/>
+      <c r="AB16" s="48"/>
+      <c r="AC16" s="63" t="s">
+        <v>76</v>
       </c>
-      <c r="AD16" s="71"/>
-      <c r="AE16" s="71"/>
-      <c r="AF16" s="71"/>
-      <c r="AG16" s="71"/>
-      <c r="AH16" s="71"/>
-      <c r="AI16" s="71"/>
-      <c r="AJ16" s="71"/>
-      <c r="AK16" s="71"/>
-      <c r="AL16" s="71"/>
-      <c r="AM16" s="71"/>
-      <c r="AN16" s="71"/>
-      <c r="AO16" s="71"/>
-      <c r="AP16" s="71"/>
-      <c r="AQ16" s="71"/>
-      <c r="AR16" s="71"/>
-      <c r="AS16" s="71"/>
-      <c r="AT16" s="71"/>
-      <c r="AU16" s="71"/>
-      <c r="AV16" s="72"/>
-      <c r="AW16" s="65"/>
+      <c r="AD16" s="64"/>
+      <c r="AE16" s="64"/>
+      <c r="AF16" s="64"/>
+      <c r="AG16" s="64"/>
+      <c r="AH16" s="64"/>
+      <c r="AI16" s="64"/>
+      <c r="AJ16" s="64"/>
+      <c r="AK16" s="64"/>
+      <c r="AL16" s="64"/>
+      <c r="AM16" s="64"/>
+      <c r="AN16" s="64"/>
+      <c r="AO16" s="64"/>
+      <c r="AP16" s="64"/>
+      <c r="AQ16" s="64"/>
+      <c r="AR16" s="64"/>
+      <c r="AS16" s="64"/>
+      <c r="AT16" s="64"/>
+      <c r="AU16" s="64"/>
+      <c r="AV16" s="65"/>
+      <c r="AW16" s="48"/>
     </row>
     <row r="17" spans="1:132" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="7">
         <v>1.9</v>
       </c>
-      <c r="C17" s="73"/>
-      <c r="D17" s="64" t="s">
+      <c r="C17" s="52"/>
+      <c r="D17" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" s="69"/>
+      <c r="F17" s="51"/>
     </row>
     <row r="18" spans="1:132" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
@@ -3158,7 +3145,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -3296,61 +3283,61 @@
         <v>2.1</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
-      <c r="D19" s="64" t="s">
-        <v>75</v>
+      <c r="D19" s="47" t="s">
+        <v>74</v>
       </c>
-      <c r="E19" s="66" t="s">
-        <v>65</v>
+      <c r="E19" s="49" t="s">
+        <v>64</v>
       </c>
-      <c r="F19" s="63" t="s">
-        <v>14</v>
+      <c r="F19" s="46" t="s">
+        <v>13</v>
       </c>
       <c r="H19" s="31"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="76"/>
-      <c r="O19" s="76"/>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="76"/>
-      <c r="R19" s="76"/>
-      <c r="S19" s="76"/>
-      <c r="T19" s="76"/>
-      <c r="U19" s="76"/>
-      <c r="V19" s="76"/>
-      <c r="W19" s="76"/>
-      <c r="X19" s="76"/>
-      <c r="Y19" s="76"/>
-      <c r="Z19" s="76"/>
-      <c r="AA19" s="76"/>
-      <c r="AB19" s="76"/>
-      <c r="AC19" s="70" t="s">
-        <v>77</v>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="55"/>
+      <c r="T19" s="55"/>
+      <c r="U19" s="55"/>
+      <c r="V19" s="55"/>
+      <c r="W19" s="55"/>
+      <c r="X19" s="55"/>
+      <c r="Y19" s="55"/>
+      <c r="Z19" s="55"/>
+      <c r="AA19" s="55"/>
+      <c r="AB19" s="55"/>
+      <c r="AC19" s="63" t="s">
+        <v>76</v>
       </c>
-      <c r="AD19" s="71"/>
-      <c r="AE19" s="71"/>
-      <c r="AF19" s="71"/>
-      <c r="AG19" s="71"/>
-      <c r="AH19" s="71"/>
-      <c r="AI19" s="71"/>
-      <c r="AJ19" s="71"/>
-      <c r="AK19" s="71"/>
-      <c r="AL19" s="71"/>
-      <c r="AM19" s="71"/>
-      <c r="AN19" s="71"/>
-      <c r="AO19" s="71"/>
-      <c r="AP19" s="71"/>
-      <c r="AQ19" s="71"/>
-      <c r="AR19" s="71"/>
-      <c r="AS19" s="71"/>
-      <c r="AT19" s="71"/>
-      <c r="AU19" s="71"/>
-      <c r="AV19" s="72"/>
-      <c r="AW19" s="65"/>
+      <c r="AD19" s="64"/>
+      <c r="AE19" s="64"/>
+      <c r="AF19" s="64"/>
+      <c r="AG19" s="64"/>
+      <c r="AH19" s="64"/>
+      <c r="AI19" s="64"/>
+      <c r="AJ19" s="64"/>
+      <c r="AK19" s="64"/>
+      <c r="AL19" s="64"/>
+      <c r="AM19" s="64"/>
+      <c r="AN19" s="64"/>
+      <c r="AO19" s="64"/>
+      <c r="AP19" s="64"/>
+      <c r="AQ19" s="64"/>
+      <c r="AR19" s="64"/>
+      <c r="AS19" s="64"/>
+      <c r="AT19" s="64"/>
+      <c r="AU19" s="64"/>
+      <c r="AV19" s="65"/>
+      <c r="AW19" s="48"/>
       <c r="AX19" s="12"/>
       <c r="AY19" s="12"/>
       <c r="AZ19" s="12"/>
@@ -3441,61 +3428,61 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
-      <c r="D20" s="64" t="s">
-        <v>75</v>
+      <c r="D20" s="47" t="s">
+        <v>74</v>
       </c>
-      <c r="E20" s="66" t="s">
-        <v>65</v>
+      <c r="E20" s="49" t="s">
+        <v>64</v>
       </c>
-      <c r="F20" s="63" t="s">
-        <v>14</v>
+      <c r="F20" s="46" t="s">
+        <v>13</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="31"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="76"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="76"/>
-      <c r="R20" s="76"/>
-      <c r="S20" s="76"/>
-      <c r="T20" s="76"/>
-      <c r="U20" s="76"/>
-      <c r="V20" s="76"/>
-      <c r="W20" s="76"/>
-      <c r="X20" s="76"/>
-      <c r="Y20" s="76"/>
-      <c r="Z20" s="76"/>
-      <c r="AA20" s="76"/>
-      <c r="AB20" s="76"/>
-      <c r="AC20" s="70" t="s">
-        <v>77</v>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="55"/>
+      <c r="S20" s="55"/>
+      <c r="T20" s="55"/>
+      <c r="U20" s="55"/>
+      <c r="V20" s="55"/>
+      <c r="W20" s="55"/>
+      <c r="X20" s="55"/>
+      <c r="Y20" s="55"/>
+      <c r="Z20" s="55"/>
+      <c r="AA20" s="55"/>
+      <c r="AB20" s="55"/>
+      <c r="AC20" s="63" t="s">
+        <v>76</v>
       </c>
-      <c r="AD20" s="71"/>
-      <c r="AE20" s="71"/>
-      <c r="AF20" s="71"/>
-      <c r="AG20" s="71"/>
-      <c r="AH20" s="71"/>
-      <c r="AI20" s="71"/>
-      <c r="AJ20" s="71"/>
-      <c r="AK20" s="71"/>
-      <c r="AL20" s="71"/>
-      <c r="AM20" s="71"/>
-      <c r="AN20" s="71"/>
-      <c r="AO20" s="71"/>
-      <c r="AP20" s="71"/>
-      <c r="AQ20" s="71"/>
-      <c r="AR20" s="71"/>
-      <c r="AS20" s="71"/>
-      <c r="AT20" s="71"/>
-      <c r="AU20" s="71"/>
-      <c r="AV20" s="72"/>
+      <c r="AD20" s="64"/>
+      <c r="AE20" s="64"/>
+      <c r="AF20" s="64"/>
+      <c r="AG20" s="64"/>
+      <c r="AH20" s="64"/>
+      <c r="AI20" s="64"/>
+      <c r="AJ20" s="64"/>
+      <c r="AK20" s="64"/>
+      <c r="AL20" s="64"/>
+      <c r="AM20" s="64"/>
+      <c r="AN20" s="64"/>
+      <c r="AO20" s="64"/>
+      <c r="AP20" s="64"/>
+      <c r="AQ20" s="64"/>
+      <c r="AR20" s="64"/>
+      <c r="AS20" s="64"/>
+      <c r="AT20" s="64"/>
+      <c r="AU20" s="64"/>
+      <c r="AV20" s="65"/>
       <c r="AW20" s="12"/>
       <c r="AX20" s="12"/>
       <c r="AY20" s="12"/>
@@ -3587,61 +3574,61 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
-      <c r="D21" s="64" t="s">
-        <v>75</v>
+      <c r="D21" s="47" t="s">
+        <v>74</v>
       </c>
-      <c r="E21" s="66" t="s">
-        <v>65</v>
+      <c r="E21" s="49" t="s">
+        <v>64</v>
       </c>
-      <c r="F21" s="63" t="s">
-        <v>14</v>
+      <c r="F21" s="46" t="s">
+        <v>13</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="31"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="76"/>
-      <c r="O21" s="76"/>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="76"/>
-      <c r="R21" s="76"/>
-      <c r="S21" s="76"/>
-      <c r="T21" s="76"/>
-      <c r="U21" s="76"/>
-      <c r="V21" s="76"/>
-      <c r="W21" s="76"/>
-      <c r="X21" s="76"/>
-      <c r="Y21" s="76"/>
-      <c r="Z21" s="76"/>
-      <c r="AA21" s="76"/>
-      <c r="AB21" s="76"/>
-      <c r="AC21" s="70" t="s">
-        <v>77</v>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="55"/>
+      <c r="U21" s="55"/>
+      <c r="V21" s="55"/>
+      <c r="W21" s="55"/>
+      <c r="X21" s="55"/>
+      <c r="Y21" s="55"/>
+      <c r="Z21" s="55"/>
+      <c r="AA21" s="55"/>
+      <c r="AB21" s="55"/>
+      <c r="AC21" s="63" t="s">
+        <v>76</v>
       </c>
-      <c r="AD21" s="71"/>
-      <c r="AE21" s="71"/>
-      <c r="AF21" s="71"/>
-      <c r="AG21" s="71"/>
-      <c r="AH21" s="71"/>
-      <c r="AI21" s="71"/>
-      <c r="AJ21" s="71"/>
-      <c r="AK21" s="71"/>
-      <c r="AL21" s="71"/>
-      <c r="AM21" s="71"/>
-      <c r="AN21" s="71"/>
-      <c r="AO21" s="71"/>
-      <c r="AP21" s="71"/>
-      <c r="AQ21" s="71"/>
-      <c r="AR21" s="71"/>
-      <c r="AS21" s="71"/>
-      <c r="AT21" s="71"/>
-      <c r="AU21" s="71"/>
-      <c r="AV21" s="72"/>
+      <c r="AD21" s="64"/>
+      <c r="AE21" s="64"/>
+      <c r="AF21" s="64"/>
+      <c r="AG21" s="64"/>
+      <c r="AH21" s="64"/>
+      <c r="AI21" s="64"/>
+      <c r="AJ21" s="64"/>
+      <c r="AK21" s="64"/>
+      <c r="AL21" s="64"/>
+      <c r="AM21" s="64"/>
+      <c r="AN21" s="64"/>
+      <c r="AO21" s="64"/>
+      <c r="AP21" s="64"/>
+      <c r="AQ21" s="64"/>
+      <c r="AR21" s="64"/>
+      <c r="AS21" s="64"/>
+      <c r="AT21" s="64"/>
+      <c r="AU21" s="64"/>
+      <c r="AV21" s="65"/>
       <c r="AW21" s="12"/>
       <c r="AX21" s="12"/>
       <c r="AY21" s="12"/>
@@ -3733,61 +3720,61 @@
         <v>2.4</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
-      <c r="D22" s="64" t="s">
-        <v>75</v>
+      <c r="D22" s="47" t="s">
+        <v>74</v>
       </c>
-      <c r="E22" s="66" t="s">
-        <v>65</v>
+      <c r="E22" s="49" t="s">
+        <v>64</v>
       </c>
-      <c r="F22" s="63" t="s">
-        <v>14</v>
+      <c r="F22" s="46" t="s">
+        <v>13</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="31"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="76"/>
-      <c r="O22" s="76"/>
-      <c r="P22" s="76"/>
-      <c r="Q22" s="76"/>
-      <c r="R22" s="76"/>
-      <c r="S22" s="76"/>
-      <c r="T22" s="76"/>
-      <c r="U22" s="76"/>
-      <c r="V22" s="76"/>
-      <c r="W22" s="76"/>
-      <c r="X22" s="76"/>
-      <c r="Y22" s="76"/>
-      <c r="Z22" s="76"/>
-      <c r="AA22" s="76"/>
-      <c r="AB22" s="76"/>
-      <c r="AC22" s="70" t="s">
-        <v>77</v>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="55"/>
+      <c r="S22" s="55"/>
+      <c r="T22" s="55"/>
+      <c r="U22" s="55"/>
+      <c r="V22" s="55"/>
+      <c r="W22" s="55"/>
+      <c r="X22" s="55"/>
+      <c r="Y22" s="55"/>
+      <c r="Z22" s="55"/>
+      <c r="AA22" s="55"/>
+      <c r="AB22" s="55"/>
+      <c r="AC22" s="63" t="s">
+        <v>76</v>
       </c>
-      <c r="AD22" s="71"/>
-      <c r="AE22" s="71"/>
-      <c r="AF22" s="71"/>
-      <c r="AG22" s="71"/>
-      <c r="AH22" s="71"/>
-      <c r="AI22" s="71"/>
-      <c r="AJ22" s="71"/>
-      <c r="AK22" s="71"/>
-      <c r="AL22" s="71"/>
-      <c r="AM22" s="71"/>
-      <c r="AN22" s="71"/>
-      <c r="AO22" s="71"/>
-      <c r="AP22" s="71"/>
-      <c r="AQ22" s="71"/>
-      <c r="AR22" s="71"/>
-      <c r="AS22" s="71"/>
-      <c r="AT22" s="71"/>
-      <c r="AU22" s="71"/>
-      <c r="AV22" s="72"/>
+      <c r="AD22" s="64"/>
+      <c r="AE22" s="64"/>
+      <c r="AF22" s="64"/>
+      <c r="AG22" s="64"/>
+      <c r="AH22" s="64"/>
+      <c r="AI22" s="64"/>
+      <c r="AJ22" s="64"/>
+      <c r="AK22" s="64"/>
+      <c r="AL22" s="64"/>
+      <c r="AM22" s="64"/>
+      <c r="AN22" s="64"/>
+      <c r="AO22" s="64"/>
+      <c r="AP22" s="64"/>
+      <c r="AQ22" s="64"/>
+      <c r="AR22" s="64"/>
+      <c r="AS22" s="64"/>
+      <c r="AT22" s="64"/>
+      <c r="AU22" s="64"/>
+      <c r="AV22" s="65"/>
       <c r="AW22" s="12"/>
       <c r="AX22" s="12"/>
       <c r="AY22" s="12"/>
@@ -3879,61 +3866,61 @@
         <v>2.5</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
-      <c r="D23" s="64" t="s">
-        <v>75</v>
+      <c r="D23" s="47" t="s">
+        <v>74</v>
       </c>
-      <c r="E23" s="66" t="s">
-        <v>65</v>
+      <c r="E23" s="49" t="s">
+        <v>64</v>
       </c>
-      <c r="F23" s="63" t="s">
-        <v>14</v>
+      <c r="F23" s="46" t="s">
+        <v>13</v>
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="31"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="76"/>
-      <c r="P23" s="76"/>
-      <c r="Q23" s="76"/>
-      <c r="R23" s="76"/>
-      <c r="S23" s="76"/>
-      <c r="T23" s="76"/>
-      <c r="U23" s="76"/>
-      <c r="V23" s="76"/>
-      <c r="W23" s="76"/>
-      <c r="X23" s="76"/>
-      <c r="Y23" s="76"/>
-      <c r="Z23" s="76"/>
-      <c r="AA23" s="76"/>
-      <c r="AB23" s="76"/>
-      <c r="AC23" s="70" t="s">
-        <v>77</v>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="55"/>
+      <c r="T23" s="55"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="55"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="55"/>
+      <c r="Y23" s="55"/>
+      <c r="Z23" s="55"/>
+      <c r="AA23" s="55"/>
+      <c r="AB23" s="55"/>
+      <c r="AC23" s="63" t="s">
+        <v>76</v>
       </c>
-      <c r="AD23" s="71"/>
-      <c r="AE23" s="71"/>
-      <c r="AF23" s="71"/>
-      <c r="AG23" s="71"/>
-      <c r="AH23" s="71"/>
-      <c r="AI23" s="71"/>
-      <c r="AJ23" s="71"/>
-      <c r="AK23" s="71"/>
-      <c r="AL23" s="71"/>
-      <c r="AM23" s="71"/>
-      <c r="AN23" s="71"/>
-      <c r="AO23" s="71"/>
-      <c r="AP23" s="71"/>
-      <c r="AQ23" s="71"/>
-      <c r="AR23" s="71"/>
-      <c r="AS23" s="71"/>
-      <c r="AT23" s="71"/>
-      <c r="AU23" s="71"/>
-      <c r="AV23" s="72"/>
+      <c r="AD23" s="64"/>
+      <c r="AE23" s="64"/>
+      <c r="AF23" s="64"/>
+      <c r="AG23" s="64"/>
+      <c r="AH23" s="64"/>
+      <c r="AI23" s="64"/>
+      <c r="AJ23" s="64"/>
+      <c r="AK23" s="64"/>
+      <c r="AL23" s="64"/>
+      <c r="AM23" s="64"/>
+      <c r="AN23" s="64"/>
+      <c r="AO23" s="64"/>
+      <c r="AP23" s="64"/>
+      <c r="AQ23" s="64"/>
+      <c r="AR23" s="64"/>
+      <c r="AS23" s="64"/>
+      <c r="AT23" s="64"/>
+      <c r="AU23" s="64"/>
+      <c r="AV23" s="65"/>
       <c r="AW23" s="12"/>
       <c r="AX23" s="12"/>
       <c r="AY23" s="12"/>
@@ -4025,126 +4012,126 @@
         <v>2.6</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
-      <c r="D24" s="64" t="s">
-        <v>75</v>
+      <c r="D24" s="47" t="s">
+        <v>74</v>
       </c>
-      <c r="E24" s="66" t="s">
-        <v>65</v>
+      <c r="E24" s="49" t="s">
+        <v>64</v>
       </c>
-      <c r="F24" s="63" t="s">
-        <v>14</v>
+      <c r="F24" s="46" t="s">
+        <v>13</v>
       </c>
       <c r="H24" s="31"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="76"/>
-      <c r="O24" s="76"/>
-      <c r="P24" s="76"/>
-      <c r="Q24" s="76"/>
-      <c r="R24" s="76"/>
-      <c r="S24" s="76"/>
-      <c r="T24" s="76"/>
-      <c r="U24" s="76"/>
-      <c r="V24" s="76"/>
-      <c r="W24" s="76"/>
-      <c r="X24" s="76"/>
-      <c r="Y24" s="76"/>
-      <c r="Z24" s="76"/>
-      <c r="AA24" s="76"/>
-      <c r="AB24" s="76"/>
-      <c r="AC24" s="70" t="s">
-        <v>77</v>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="55"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="55"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="55"/>
+      <c r="Y24" s="55"/>
+      <c r="Z24" s="55"/>
+      <c r="AA24" s="55"/>
+      <c r="AB24" s="55"/>
+      <c r="AC24" s="63" t="s">
+        <v>76</v>
       </c>
-      <c r="AD24" s="71"/>
-      <c r="AE24" s="71"/>
-      <c r="AF24" s="71"/>
-      <c r="AG24" s="71"/>
-      <c r="AH24" s="71"/>
-      <c r="AI24" s="71"/>
-      <c r="AJ24" s="71"/>
-      <c r="AK24" s="71"/>
-      <c r="AL24" s="71"/>
-      <c r="AM24" s="71"/>
-      <c r="AN24" s="71"/>
-      <c r="AO24" s="71"/>
-      <c r="AP24" s="71"/>
-      <c r="AQ24" s="71"/>
-      <c r="AR24" s="71"/>
-      <c r="AS24" s="71"/>
-      <c r="AT24" s="71"/>
-      <c r="AU24" s="71"/>
-      <c r="AV24" s="72"/>
+      <c r="AD24" s="64"/>
+      <c r="AE24" s="64"/>
+      <c r="AF24" s="64"/>
+      <c r="AG24" s="64"/>
+      <c r="AH24" s="64"/>
+      <c r="AI24" s="64"/>
+      <c r="AJ24" s="64"/>
+      <c r="AK24" s="64"/>
+      <c r="AL24" s="64"/>
+      <c r="AM24" s="64"/>
+      <c r="AN24" s="64"/>
+      <c r="AO24" s="64"/>
+      <c r="AP24" s="64"/>
+      <c r="AQ24" s="64"/>
+      <c r="AR24" s="64"/>
+      <c r="AS24" s="64"/>
+      <c r="AT24" s="64"/>
+      <c r="AU24" s="64"/>
+      <c r="AV24" s="65"/>
     </row>
     <row r="25" spans="1:132" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="39">
         <v>2.7</v>
       </c>
-      <c r="C25" s="68" t="s">
+      <c r="C25" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="31"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="48"/>
+      <c r="W25" s="48"/>
+      <c r="X25" s="48"/>
+      <c r="Y25" s="48"/>
+      <c r="Z25" s="48"/>
+      <c r="AA25" s="48"/>
+      <c r="AB25" s="48"/>
+      <c r="AC25" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="31"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="65"/>
-      <c r="N25" s="65"/>
-      <c r="O25" s="65"/>
-      <c r="P25" s="65"/>
-      <c r="Q25" s="65"/>
-      <c r="R25" s="65"/>
-      <c r="S25" s="65"/>
-      <c r="T25" s="65"/>
-      <c r="U25" s="65"/>
-      <c r="V25" s="65"/>
-      <c r="W25" s="65"/>
-      <c r="X25" s="65"/>
-      <c r="Y25" s="65"/>
-      <c r="Z25" s="65"/>
-      <c r="AA25" s="65"/>
-      <c r="AB25" s="65"/>
-      <c r="AC25" s="70" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD25" s="71"/>
-      <c r="AE25" s="71"/>
-      <c r="AF25" s="71"/>
-      <c r="AG25" s="71"/>
-      <c r="AH25" s="71"/>
-      <c r="AI25" s="71"/>
-      <c r="AJ25" s="71"/>
-      <c r="AK25" s="71"/>
-      <c r="AL25" s="71"/>
-      <c r="AM25" s="71"/>
-      <c r="AN25" s="71"/>
-      <c r="AO25" s="71"/>
-      <c r="AP25" s="71"/>
-      <c r="AQ25" s="71"/>
-      <c r="AR25" s="71"/>
-      <c r="AS25" s="71"/>
-      <c r="AT25" s="71"/>
-      <c r="AU25" s="71"/>
-      <c r="AV25" s="72"/>
-      <c r="AW25" s="65"/>
-      <c r="AX25" s="65"/>
-      <c r="AY25" s="65"/>
-      <c r="AZ25" s="65"/>
-      <c r="BA25" s="65"/>
+      <c r="AD25" s="64"/>
+      <c r="AE25" s="64"/>
+      <c r="AF25" s="64"/>
+      <c r="AG25" s="64"/>
+      <c r="AH25" s="64"/>
+      <c r="AI25" s="64"/>
+      <c r="AJ25" s="64"/>
+      <c r="AK25" s="64"/>
+      <c r="AL25" s="64"/>
+      <c r="AM25" s="64"/>
+      <c r="AN25" s="64"/>
+      <c r="AO25" s="64"/>
+      <c r="AP25" s="64"/>
+      <c r="AQ25" s="64"/>
+      <c r="AR25" s="64"/>
+      <c r="AS25" s="64"/>
+      <c r="AT25" s="64"/>
+      <c r="AU25" s="64"/>
+      <c r="AV25" s="65"/>
+      <c r="AW25" s="48"/>
+      <c r="AX25" s="48"/>
+      <c r="AY25" s="48"/>
+      <c r="AZ25" s="48"/>
+      <c r="BA25" s="48"/>
     </row>
     <row r="26" spans="1:132" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
@@ -4152,65 +4139,65 @@
         <v>2.8</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
-      <c r="D26" s="64" t="s">
-        <v>75</v>
+      <c r="D26" s="47" t="s">
+        <v>74</v>
       </c>
-      <c r="E26" s="66" t="s">
-        <v>65</v>
+      <c r="E26" s="49" t="s">
+        <v>64</v>
       </c>
-      <c r="F26" s="63" t="s">
-        <v>14</v>
+      <c r="F26" s="46" t="s">
+        <v>13</v>
       </c>
       <c r="H26" s="31"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="65"/>
-      <c r="O26" s="65"/>
-      <c r="P26" s="65"/>
-      <c r="Q26" s="65"/>
-      <c r="R26" s="65"/>
-      <c r="S26" s="65"/>
-      <c r="T26" s="65"/>
-      <c r="U26" s="65"/>
-      <c r="V26" s="65"/>
-      <c r="W26" s="65"/>
-      <c r="X26" s="65"/>
-      <c r="Y26" s="65"/>
-      <c r="Z26" s="65"/>
-      <c r="AA26" s="65"/>
-      <c r="AB26" s="65"/>
-      <c r="AC26" s="70" t="s">
-        <v>77</v>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="48"/>
+      <c r="V26" s="48"/>
+      <c r="W26" s="48"/>
+      <c r="X26" s="48"/>
+      <c r="Y26" s="48"/>
+      <c r="Z26" s="48"/>
+      <c r="AA26" s="48"/>
+      <c r="AB26" s="48"/>
+      <c r="AC26" s="63" t="s">
+        <v>76</v>
       </c>
-      <c r="AD26" s="71"/>
-      <c r="AE26" s="71"/>
-      <c r="AF26" s="71"/>
-      <c r="AG26" s="71"/>
-      <c r="AH26" s="71"/>
-      <c r="AI26" s="71"/>
-      <c r="AJ26" s="71"/>
-      <c r="AK26" s="71"/>
-      <c r="AL26" s="71"/>
-      <c r="AM26" s="71"/>
-      <c r="AN26" s="71"/>
-      <c r="AO26" s="71"/>
-      <c r="AP26" s="71"/>
-      <c r="AQ26" s="71"/>
-      <c r="AR26" s="71"/>
-      <c r="AS26" s="71"/>
-      <c r="AT26" s="71"/>
-      <c r="AU26" s="71"/>
-      <c r="AV26" s="72"/>
-      <c r="AW26" s="65"/>
-      <c r="AX26" s="65"/>
-      <c r="AY26" s="65"/>
-      <c r="AZ26" s="65"/>
-      <c r="BA26" s="65"/>
+      <c r="AD26" s="64"/>
+      <c r="AE26" s="64"/>
+      <c r="AF26" s="64"/>
+      <c r="AG26" s="64"/>
+      <c r="AH26" s="64"/>
+      <c r="AI26" s="64"/>
+      <c r="AJ26" s="64"/>
+      <c r="AK26" s="64"/>
+      <c r="AL26" s="64"/>
+      <c r="AM26" s="64"/>
+      <c r="AN26" s="64"/>
+      <c r="AO26" s="64"/>
+      <c r="AP26" s="64"/>
+      <c r="AQ26" s="64"/>
+      <c r="AR26" s="64"/>
+      <c r="AS26" s="64"/>
+      <c r="AT26" s="64"/>
+      <c r="AU26" s="64"/>
+      <c r="AV26" s="65"/>
+      <c r="AW26" s="48"/>
+      <c r="AX26" s="48"/>
+      <c r="AY26" s="48"/>
+      <c r="AZ26" s="48"/>
+      <c r="BA26" s="48"/>
     </row>
     <row r="27" spans="1:132" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
@@ -4218,7 +4205,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -4356,16 +4343,14 @@
         <v>3.1</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
-      <c r="D28" s="79" t="s">
-        <v>83</v>
+      <c r="D28" s="58" t="s">
+        <v>80</v>
       </c>
-      <c r="E28" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="F28" s="82" t="s">
-        <v>15</v>
+      <c r="E28" s="49"/>
+      <c r="F28" s="61" t="s">
+        <v>14</v>
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="14"/>
@@ -4389,28 +4374,28 @@
       <c r="Z28" s="27"/>
       <c r="AA28" s="12"/>
       <c r="AB28" s="12"/>
-      <c r="AC28" s="70" t="s">
-        <v>77</v>
+      <c r="AC28" s="63" t="s">
+        <v>76</v>
       </c>
-      <c r="AD28" s="71"/>
-      <c r="AE28" s="71"/>
-      <c r="AF28" s="71"/>
-      <c r="AG28" s="71"/>
-      <c r="AH28" s="71"/>
-      <c r="AI28" s="71"/>
-      <c r="AJ28" s="71"/>
-      <c r="AK28" s="71"/>
-      <c r="AL28" s="71"/>
-      <c r="AM28" s="71"/>
-      <c r="AN28" s="71"/>
-      <c r="AO28" s="71"/>
-      <c r="AP28" s="71"/>
-      <c r="AQ28" s="71"/>
-      <c r="AR28" s="71"/>
-      <c r="AS28" s="71"/>
-      <c r="AT28" s="71"/>
-      <c r="AU28" s="71"/>
-      <c r="AV28" s="72"/>
+      <c r="AD28" s="64"/>
+      <c r="AE28" s="64"/>
+      <c r="AF28" s="64"/>
+      <c r="AG28" s="64"/>
+      <c r="AH28" s="64"/>
+      <c r="AI28" s="64"/>
+      <c r="AJ28" s="64"/>
+      <c r="AK28" s="64"/>
+      <c r="AL28" s="64"/>
+      <c r="AM28" s="64"/>
+      <c r="AN28" s="64"/>
+      <c r="AO28" s="64"/>
+      <c r="AP28" s="64"/>
+      <c r="AQ28" s="64"/>
+      <c r="AR28" s="64"/>
+      <c r="AS28" s="64"/>
+      <c r="AT28" s="64"/>
+      <c r="AU28" s="64"/>
+      <c r="AV28" s="65"/>
       <c r="AW28" s="12"/>
       <c r="AX28" s="12"/>
       <c r="AY28" s="12"/>
@@ -4502,16 +4487,14 @@
         <v>3.2</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
-      <c r="D29" s="79" t="s">
-        <v>83</v>
+      <c r="D29" s="58" t="s">
+        <v>80</v>
       </c>
-      <c r="E29" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="F29" s="82" t="s">
-        <v>15</v>
+      <c r="E29" s="49"/>
+      <c r="F29" s="61" t="s">
+        <v>14</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="14"/>
@@ -4535,28 +4518,28 @@
       <c r="Z29" s="28"/>
       <c r="AA29" s="12"/>
       <c r="AB29" s="12"/>
-      <c r="AC29" s="70" t="s">
-        <v>77</v>
+      <c r="AC29" s="63" t="s">
+        <v>76</v>
       </c>
-      <c r="AD29" s="71"/>
-      <c r="AE29" s="71"/>
-      <c r="AF29" s="71"/>
-      <c r="AG29" s="71"/>
-      <c r="AH29" s="71"/>
-      <c r="AI29" s="71"/>
-      <c r="AJ29" s="71"/>
-      <c r="AK29" s="71"/>
-      <c r="AL29" s="71"/>
-      <c r="AM29" s="71"/>
-      <c r="AN29" s="71"/>
-      <c r="AO29" s="71"/>
-      <c r="AP29" s="71"/>
-      <c r="AQ29" s="71"/>
-      <c r="AR29" s="71"/>
-      <c r="AS29" s="71"/>
-      <c r="AT29" s="71"/>
-      <c r="AU29" s="71"/>
-      <c r="AV29" s="72"/>
+      <c r="AD29" s="64"/>
+      <c r="AE29" s="64"/>
+      <c r="AF29" s="64"/>
+      <c r="AG29" s="64"/>
+      <c r="AH29" s="64"/>
+      <c r="AI29" s="64"/>
+      <c r="AJ29" s="64"/>
+      <c r="AK29" s="64"/>
+      <c r="AL29" s="64"/>
+      <c r="AM29" s="64"/>
+      <c r="AN29" s="64"/>
+      <c r="AO29" s="64"/>
+      <c r="AP29" s="64"/>
+      <c r="AQ29" s="64"/>
+      <c r="AR29" s="64"/>
+      <c r="AS29" s="64"/>
+      <c r="AT29" s="64"/>
+      <c r="AU29" s="64"/>
+      <c r="AV29" s="65"/>
       <c r="AW29" s="12"/>
       <c r="AX29" s="12"/>
       <c r="AY29" s="12"/>
@@ -4648,16 +4631,14 @@
         <v>3.3</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
-      <c r="D30" s="79" t="s">
-        <v>83</v>
+      <c r="D30" s="58" t="s">
+        <v>80</v>
       </c>
-      <c r="E30" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="F30" s="82" t="s">
-        <v>15</v>
+      <c r="E30" s="49"/>
+      <c r="F30" s="61" t="s">
+        <v>14</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="14"/>
@@ -4681,28 +4662,28 @@
       <c r="Z30" s="19"/>
       <c r="AA30" s="12"/>
       <c r="AB30" s="12"/>
-      <c r="AC30" s="70" t="s">
-        <v>77</v>
+      <c r="AC30" s="63" t="s">
+        <v>76</v>
       </c>
-      <c r="AD30" s="71"/>
-      <c r="AE30" s="71"/>
-      <c r="AF30" s="71"/>
-      <c r="AG30" s="71"/>
-      <c r="AH30" s="71"/>
-      <c r="AI30" s="71"/>
-      <c r="AJ30" s="71"/>
-      <c r="AK30" s="71"/>
-      <c r="AL30" s="71"/>
-      <c r="AM30" s="71"/>
-      <c r="AN30" s="71"/>
-      <c r="AO30" s="71"/>
-      <c r="AP30" s="71"/>
-      <c r="AQ30" s="71"/>
-      <c r="AR30" s="71"/>
-      <c r="AS30" s="71"/>
-      <c r="AT30" s="71"/>
-      <c r="AU30" s="71"/>
-      <c r="AV30" s="72"/>
+      <c r="AD30" s="64"/>
+      <c r="AE30" s="64"/>
+      <c r="AF30" s="64"/>
+      <c r="AG30" s="64"/>
+      <c r="AH30" s="64"/>
+      <c r="AI30" s="64"/>
+      <c r="AJ30" s="64"/>
+      <c r="AK30" s="64"/>
+      <c r="AL30" s="64"/>
+      <c r="AM30" s="64"/>
+      <c r="AN30" s="64"/>
+      <c r="AO30" s="64"/>
+      <c r="AP30" s="64"/>
+      <c r="AQ30" s="64"/>
+      <c r="AR30" s="64"/>
+      <c r="AS30" s="64"/>
+      <c r="AT30" s="64"/>
+      <c r="AU30" s="64"/>
+      <c r="AV30" s="65"/>
       <c r="AW30" s="27"/>
       <c r="AX30" s="27"/>
       <c r="AY30" s="27"/>
@@ -4794,16 +4775,14 @@
         <v>3.4</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
-      <c r="D31" s="79" t="s">
-        <v>83</v>
+      <c r="D31" s="58" t="s">
+        <v>80</v>
       </c>
-      <c r="E31" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="F31" s="82" t="s">
-        <v>15</v>
+      <c r="E31" s="49"/>
+      <c r="F31" s="61" t="s">
+        <v>14</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="14"/>
@@ -4827,28 +4806,28 @@
       <c r="Z31" s="19"/>
       <c r="AA31" s="12"/>
       <c r="AB31" s="12"/>
-      <c r="AC31" s="70" t="s">
-        <v>77</v>
+      <c r="AC31" s="63" t="s">
+        <v>76</v>
       </c>
-      <c r="AD31" s="71"/>
-      <c r="AE31" s="71"/>
-      <c r="AF31" s="71"/>
-      <c r="AG31" s="71"/>
-      <c r="AH31" s="71"/>
-      <c r="AI31" s="71"/>
-      <c r="AJ31" s="71"/>
-      <c r="AK31" s="71"/>
-      <c r="AL31" s="71"/>
-      <c r="AM31" s="71"/>
-      <c r="AN31" s="71"/>
-      <c r="AO31" s="71"/>
-      <c r="AP31" s="71"/>
-      <c r="AQ31" s="71"/>
-      <c r="AR31" s="71"/>
-      <c r="AS31" s="71"/>
-      <c r="AT31" s="71"/>
-      <c r="AU31" s="71"/>
-      <c r="AV31" s="72"/>
+      <c r="AD31" s="64"/>
+      <c r="AE31" s="64"/>
+      <c r="AF31" s="64"/>
+      <c r="AG31" s="64"/>
+      <c r="AH31" s="64"/>
+      <c r="AI31" s="64"/>
+      <c r="AJ31" s="64"/>
+      <c r="AK31" s="64"/>
+      <c r="AL31" s="64"/>
+      <c r="AM31" s="64"/>
+      <c r="AN31" s="64"/>
+      <c r="AO31" s="64"/>
+      <c r="AP31" s="64"/>
+      <c r="AQ31" s="64"/>
+      <c r="AR31" s="64"/>
+      <c r="AS31" s="64"/>
+      <c r="AT31" s="64"/>
+      <c r="AU31" s="64"/>
+      <c r="AV31" s="65"/>
       <c r="AW31" s="28"/>
       <c r="AX31" s="28"/>
       <c r="AY31" s="28"/>
@@ -4940,16 +4919,14 @@
         <v>3.5</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
-      <c r="D32" s="79" t="s">
-        <v>83</v>
+      <c r="D32" s="58" t="s">
+        <v>80</v>
       </c>
-      <c r="E32" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="F32" s="82" t="s">
-        <v>15</v>
+      <c r="E32" s="49"/>
+      <c r="F32" s="61" t="s">
+        <v>14</v>
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="14"/>
@@ -4973,28 +4950,28 @@
       <c r="Z32" s="19"/>
       <c r="AA32" s="12"/>
       <c r="AB32" s="12"/>
-      <c r="AC32" s="70" t="s">
-        <v>77</v>
+      <c r="AC32" s="63" t="s">
+        <v>76</v>
       </c>
-      <c r="AD32" s="71"/>
-      <c r="AE32" s="71"/>
-      <c r="AF32" s="71"/>
-      <c r="AG32" s="71"/>
-      <c r="AH32" s="71"/>
-      <c r="AI32" s="71"/>
-      <c r="AJ32" s="71"/>
-      <c r="AK32" s="71"/>
-      <c r="AL32" s="71"/>
-      <c r="AM32" s="71"/>
-      <c r="AN32" s="71"/>
-      <c r="AO32" s="71"/>
-      <c r="AP32" s="71"/>
-      <c r="AQ32" s="71"/>
-      <c r="AR32" s="71"/>
-      <c r="AS32" s="71"/>
-      <c r="AT32" s="71"/>
-      <c r="AU32" s="71"/>
-      <c r="AV32" s="72"/>
+      <c r="AD32" s="64"/>
+      <c r="AE32" s="64"/>
+      <c r="AF32" s="64"/>
+      <c r="AG32" s="64"/>
+      <c r="AH32" s="64"/>
+      <c r="AI32" s="64"/>
+      <c r="AJ32" s="64"/>
+      <c r="AK32" s="64"/>
+      <c r="AL32" s="64"/>
+      <c r="AM32" s="64"/>
+      <c r="AN32" s="64"/>
+      <c r="AO32" s="64"/>
+      <c r="AP32" s="64"/>
+      <c r="AQ32" s="64"/>
+      <c r="AR32" s="64"/>
+      <c r="AS32" s="64"/>
+      <c r="AT32" s="64"/>
+      <c r="AU32" s="64"/>
+      <c r="AV32" s="65"/>
       <c r="AW32" s="27"/>
       <c r="AX32" s="27"/>
       <c r="AY32" s="27"/>
@@ -5086,7 +5063,7 @@
         <v>4</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -5224,16 +5201,16 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
-      <c r="D34" s="77" t="s">
-        <v>65</v>
+      <c r="D34" s="56" t="s">
+        <v>64</v>
       </c>
-      <c r="E34" s="78" t="s">
-        <v>87</v>
+      <c r="E34" s="57" t="s">
+        <v>84</v>
       </c>
-      <c r="F34" s="80" t="s">
-        <v>14</v>
+      <c r="F34" s="59" t="s">
+        <v>13</v>
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="14"/>
@@ -5243,47 +5220,47 @@
       <c r="L34" s="12"/>
       <c r="M34" s="12"/>
       <c r="N34" s="31"/>
-      <c r="O34" s="65"/>
-      <c r="P34" s="65"/>
-      <c r="Q34" s="65"/>
-      <c r="R34" s="65"/>
-      <c r="S34" s="65"/>
-      <c r="T34" s="65"/>
-      <c r="U34" s="65"/>
-      <c r="V34" s="65"/>
-      <c r="W34" s="65"/>
-      <c r="X34" s="65"/>
-      <c r="Y34" s="65"/>
-      <c r="Z34" s="65"/>
-      <c r="AA34" s="65"/>
-      <c r="AB34" s="65"/>
-      <c r="AC34" s="70" t="s">
-        <v>77</v>
+      <c r="O34" s="48"/>
+      <c r="P34" s="48"/>
+      <c r="Q34" s="48"/>
+      <c r="R34" s="48"/>
+      <c r="S34" s="48"/>
+      <c r="T34" s="48"/>
+      <c r="U34" s="48"/>
+      <c r="V34" s="48"/>
+      <c r="W34" s="48"/>
+      <c r="X34" s="48"/>
+      <c r="Y34" s="48"/>
+      <c r="Z34" s="48"/>
+      <c r="AA34" s="48"/>
+      <c r="AB34" s="48"/>
+      <c r="AC34" s="63" t="s">
+        <v>76</v>
       </c>
-      <c r="AD34" s="71"/>
-      <c r="AE34" s="71"/>
-      <c r="AF34" s="71"/>
-      <c r="AG34" s="71"/>
-      <c r="AH34" s="71"/>
-      <c r="AI34" s="71"/>
-      <c r="AJ34" s="71"/>
-      <c r="AK34" s="71"/>
-      <c r="AL34" s="71"/>
-      <c r="AM34" s="71"/>
-      <c r="AN34" s="71"/>
-      <c r="AO34" s="71"/>
-      <c r="AP34" s="71"/>
-      <c r="AQ34" s="71"/>
-      <c r="AR34" s="71"/>
-      <c r="AS34" s="71"/>
-      <c r="AT34" s="71"/>
-      <c r="AU34" s="71"/>
-      <c r="AV34" s="72"/>
-      <c r="AW34" s="65"/>
-      <c r="AX34" s="65"/>
-      <c r="AY34" s="65"/>
-      <c r="AZ34" s="65"/>
-      <c r="BA34" s="76"/>
+      <c r="AD34" s="64"/>
+      <c r="AE34" s="64"/>
+      <c r="AF34" s="64"/>
+      <c r="AG34" s="64"/>
+      <c r="AH34" s="64"/>
+      <c r="AI34" s="64"/>
+      <c r="AJ34" s="64"/>
+      <c r="AK34" s="64"/>
+      <c r="AL34" s="64"/>
+      <c r="AM34" s="64"/>
+      <c r="AN34" s="64"/>
+      <c r="AO34" s="64"/>
+      <c r="AP34" s="64"/>
+      <c r="AQ34" s="64"/>
+      <c r="AR34" s="64"/>
+      <c r="AS34" s="64"/>
+      <c r="AT34" s="64"/>
+      <c r="AU34" s="64"/>
+      <c r="AV34" s="65"/>
+      <c r="AW34" s="48"/>
+      <c r="AX34" s="48"/>
+      <c r="AY34" s="48"/>
+      <c r="AZ34" s="48"/>
+      <c r="BA34" s="55"/>
       <c r="BB34" s="12"/>
       <c r="BC34" s="12"/>
       <c r="BD34" s="12"/>
@@ -5370,16 +5347,14 @@
         <v>4.2</v>
       </c>
       <c r="C35" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="D35" s="79" t="s">
-        <v>87</v>
-      </c>
-      <c r="E35" s="78" t="s">
-        <v>88</v>
-      </c>
-      <c r="F35" s="81" t="s">
-        <v>15</v>
+      <c r="E35" s="57"/>
+      <c r="F35" s="60" t="s">
+        <v>14</v>
       </c>
       <c r="G35" s="13"/>
       <c r="H35" s="14"/>
@@ -5403,64 +5378,64 @@
       <c r="Z35" s="19"/>
       <c r="AA35" s="19"/>
       <c r="AB35" s="19"/>
-      <c r="AC35" s="70" t="s">
-        <v>77</v>
+      <c r="AC35" s="63" t="s">
+        <v>76</v>
       </c>
-      <c r="AD35" s="71"/>
-      <c r="AE35" s="71"/>
-      <c r="AF35" s="71"/>
-      <c r="AG35" s="71"/>
-      <c r="AH35" s="71"/>
-      <c r="AI35" s="71"/>
-      <c r="AJ35" s="71"/>
-      <c r="AK35" s="71"/>
-      <c r="AL35" s="71"/>
-      <c r="AM35" s="71"/>
-      <c r="AN35" s="71"/>
-      <c r="AO35" s="71"/>
-      <c r="AP35" s="71"/>
-      <c r="AQ35" s="71"/>
-      <c r="AR35" s="71"/>
-      <c r="AS35" s="71"/>
-      <c r="AT35" s="71"/>
-      <c r="AU35" s="71"/>
-      <c r="AV35" s="72"/>
+      <c r="AD35" s="64"/>
+      <c r="AE35" s="64"/>
+      <c r="AF35" s="64"/>
+      <c r="AG35" s="64"/>
+      <c r="AH35" s="64"/>
+      <c r="AI35" s="64"/>
+      <c r="AJ35" s="64"/>
+      <c r="AK35" s="64"/>
+      <c r="AL35" s="64"/>
+      <c r="AM35" s="64"/>
+      <c r="AN35" s="64"/>
+      <c r="AO35" s="64"/>
+      <c r="AP35" s="64"/>
+      <c r="AQ35" s="64"/>
+      <c r="AR35" s="64"/>
+      <c r="AS35" s="64"/>
+      <c r="AT35" s="64"/>
+      <c r="AU35" s="64"/>
+      <c r="AV35" s="65"/>
       <c r="AW35" s="12"/>
       <c r="AX35" s="12"/>
       <c r="AY35" s="12"/>
       <c r="AZ35" s="12"/>
       <c r="BA35" s="12"/>
       <c r="BB35" s="31"/>
-      <c r="BC35" s="65"/>
-      <c r="BD35" s="65"/>
-      <c r="BE35" s="65"/>
-      <c r="BF35" s="65"/>
-      <c r="BG35" s="65"/>
-      <c r="BH35" s="65"/>
-      <c r="BI35" s="65"/>
-      <c r="BJ35" s="65"/>
-      <c r="BK35" s="65"/>
-      <c r="BL35" s="65"/>
-      <c r="BM35" s="65"/>
-      <c r="BN35" s="65"/>
-      <c r="BO35" s="65"/>
-      <c r="BP35" s="65"/>
-      <c r="BQ35" s="65"/>
-      <c r="BR35" s="65"/>
-      <c r="BS35" s="65"/>
-      <c r="BT35" s="65"/>
-      <c r="BU35" s="65"/>
-      <c r="BV35" s="65"/>
-      <c r="BW35" s="65"/>
-      <c r="BX35" s="65"/>
-      <c r="BY35" s="65"/>
-      <c r="BZ35" s="65"/>
-      <c r="CA35" s="65"/>
-      <c r="CB35" s="65"/>
-      <c r="CC35" s="65"/>
-      <c r="CD35" s="65"/>
-      <c r="CE35" s="65"/>
-      <c r="CF35" s="65"/>
+      <c r="BC35" s="48"/>
+      <c r="BD35" s="48"/>
+      <c r="BE35" s="48"/>
+      <c r="BF35" s="48"/>
+      <c r="BG35" s="48"/>
+      <c r="BH35" s="48"/>
+      <c r="BI35" s="48"/>
+      <c r="BJ35" s="48"/>
+      <c r="BK35" s="48"/>
+      <c r="BL35" s="48"/>
+      <c r="BM35" s="48"/>
+      <c r="BN35" s="48"/>
+      <c r="BO35" s="48"/>
+      <c r="BP35" s="48"/>
+      <c r="BQ35" s="48"/>
+      <c r="BR35" s="48"/>
+      <c r="BS35" s="48"/>
+      <c r="BT35" s="48"/>
+      <c r="BU35" s="48"/>
+      <c r="BV35" s="48"/>
+      <c r="BW35" s="48"/>
+      <c r="BX35" s="48"/>
+      <c r="BY35" s="48"/>
+      <c r="BZ35" s="48"/>
+      <c r="CA35" s="48"/>
+      <c r="CB35" s="48"/>
+      <c r="CC35" s="48"/>
+      <c r="CD35" s="48"/>
+      <c r="CE35" s="48"/>
+      <c r="CF35" s="48"/>
       <c r="CG35" s="12"/>
       <c r="CH35" s="12"/>
       <c r="CI35" s="21"/>
@@ -5516,16 +5491,14 @@
         <v>4.3</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
-      <c r="D36" s="79" t="s">
-        <v>87</v>
+      <c r="D36" s="58" t="s">
+        <v>84</v>
       </c>
-      <c r="E36" s="66" t="s">
-        <v>87</v>
-      </c>
-      <c r="F36" s="82" t="s">
-        <v>15</v>
+      <c r="E36" s="49"/>
+      <c r="F36" s="61" t="s">
+        <v>14</v>
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="14"/>
@@ -5549,64 +5522,64 @@
       <c r="Z36" s="20"/>
       <c r="AA36" s="20"/>
       <c r="AB36" s="20"/>
-      <c r="AC36" s="70" t="s">
-        <v>77</v>
+      <c r="AC36" s="63" t="s">
+        <v>76</v>
       </c>
-      <c r="AD36" s="71"/>
-      <c r="AE36" s="71"/>
-      <c r="AF36" s="71"/>
-      <c r="AG36" s="71"/>
-      <c r="AH36" s="71"/>
-      <c r="AI36" s="71"/>
-      <c r="AJ36" s="71"/>
-      <c r="AK36" s="71"/>
-      <c r="AL36" s="71"/>
-      <c r="AM36" s="71"/>
-      <c r="AN36" s="71"/>
-      <c r="AO36" s="71"/>
-      <c r="AP36" s="71"/>
-      <c r="AQ36" s="71"/>
-      <c r="AR36" s="71"/>
-      <c r="AS36" s="71"/>
-      <c r="AT36" s="71"/>
-      <c r="AU36" s="71"/>
-      <c r="AV36" s="72"/>
+      <c r="AD36" s="64"/>
+      <c r="AE36" s="64"/>
+      <c r="AF36" s="64"/>
+      <c r="AG36" s="64"/>
+      <c r="AH36" s="64"/>
+      <c r="AI36" s="64"/>
+      <c r="AJ36" s="64"/>
+      <c r="AK36" s="64"/>
+      <c r="AL36" s="64"/>
+      <c r="AM36" s="64"/>
+      <c r="AN36" s="64"/>
+      <c r="AO36" s="64"/>
+      <c r="AP36" s="64"/>
+      <c r="AQ36" s="64"/>
+      <c r="AR36" s="64"/>
+      <c r="AS36" s="64"/>
+      <c r="AT36" s="64"/>
+      <c r="AU36" s="64"/>
+      <c r="AV36" s="65"/>
       <c r="AW36" s="12"/>
       <c r="AX36" s="12"/>
       <c r="AY36" s="12"/>
       <c r="AZ36" s="12"/>
       <c r="BA36" s="12"/>
       <c r="BB36" s="31"/>
-      <c r="BC36" s="65"/>
-      <c r="BD36" s="65"/>
-      <c r="BE36" s="65"/>
-      <c r="BF36" s="65"/>
-      <c r="BG36" s="65"/>
-      <c r="BH36" s="65"/>
-      <c r="BI36" s="65"/>
-      <c r="BJ36" s="65"/>
-      <c r="BK36" s="65"/>
-      <c r="BL36" s="65"/>
-      <c r="BM36" s="65"/>
-      <c r="BN36" s="65"/>
-      <c r="BO36" s="65"/>
-      <c r="BP36" s="65"/>
-      <c r="BQ36" s="65"/>
-      <c r="BR36" s="65"/>
-      <c r="BS36" s="65"/>
-      <c r="BT36" s="65"/>
-      <c r="BU36" s="65"/>
-      <c r="BV36" s="65"/>
-      <c r="BW36" s="65"/>
-      <c r="BX36" s="65"/>
-      <c r="BY36" s="65"/>
-      <c r="BZ36" s="65"/>
-      <c r="CA36" s="65"/>
-      <c r="CB36" s="65"/>
-      <c r="CC36" s="65"/>
-      <c r="CD36" s="65"/>
-      <c r="CE36" s="65"/>
-      <c r="CF36" s="65"/>
+      <c r="BC36" s="48"/>
+      <c r="BD36" s="48"/>
+      <c r="BE36" s="48"/>
+      <c r="BF36" s="48"/>
+      <c r="BG36" s="48"/>
+      <c r="BH36" s="48"/>
+      <c r="BI36" s="48"/>
+      <c r="BJ36" s="48"/>
+      <c r="BK36" s="48"/>
+      <c r="BL36" s="48"/>
+      <c r="BM36" s="48"/>
+      <c r="BN36" s="48"/>
+      <c r="BO36" s="48"/>
+      <c r="BP36" s="48"/>
+      <c r="BQ36" s="48"/>
+      <c r="BR36" s="48"/>
+      <c r="BS36" s="48"/>
+      <c r="BT36" s="48"/>
+      <c r="BU36" s="48"/>
+      <c r="BV36" s="48"/>
+      <c r="BW36" s="48"/>
+      <c r="BX36" s="48"/>
+      <c r="BY36" s="48"/>
+      <c r="BZ36" s="48"/>
+      <c r="CA36" s="48"/>
+      <c r="CB36" s="48"/>
+      <c r="CC36" s="48"/>
+      <c r="CD36" s="48"/>
+      <c r="CE36" s="48"/>
+      <c r="CF36" s="48"/>
       <c r="CG36" s="12"/>
       <c r="CH36" s="12"/>
       <c r="CI36" s="24"/>
@@ -5662,7 +5635,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
@@ -5689,28 +5662,28 @@
       <c r="Z37" s="22"/>
       <c r="AA37" s="22"/>
       <c r="AB37" s="22"/>
-      <c r="AC37" s="70" t="s">
-        <v>77</v>
+      <c r="AC37" s="63" t="s">
+        <v>76</v>
       </c>
-      <c r="AD37" s="71"/>
-      <c r="AE37" s="71"/>
-      <c r="AF37" s="71"/>
-      <c r="AG37" s="71"/>
-      <c r="AH37" s="71"/>
-      <c r="AI37" s="71"/>
-      <c r="AJ37" s="71"/>
-      <c r="AK37" s="71"/>
-      <c r="AL37" s="71"/>
-      <c r="AM37" s="71"/>
-      <c r="AN37" s="71"/>
-      <c r="AO37" s="71"/>
-      <c r="AP37" s="71"/>
-      <c r="AQ37" s="71"/>
-      <c r="AR37" s="71"/>
-      <c r="AS37" s="71"/>
-      <c r="AT37" s="71"/>
-      <c r="AU37" s="71"/>
-      <c r="AV37" s="72"/>
+      <c r="AD37" s="64"/>
+      <c r="AE37" s="64"/>
+      <c r="AF37" s="64"/>
+      <c r="AG37" s="64"/>
+      <c r="AH37" s="64"/>
+      <c r="AI37" s="64"/>
+      <c r="AJ37" s="64"/>
+      <c r="AK37" s="64"/>
+      <c r="AL37" s="64"/>
+      <c r="AM37" s="64"/>
+      <c r="AN37" s="64"/>
+      <c r="AO37" s="64"/>
+      <c r="AP37" s="64"/>
+      <c r="AQ37" s="64"/>
+      <c r="AR37" s="64"/>
+      <c r="AS37" s="64"/>
+      <c r="AT37" s="64"/>
+      <c r="AU37" s="64"/>
+      <c r="AV37" s="65"/>
       <c r="AW37" s="12"/>
       <c r="AX37" s="12"/>
       <c r="AY37" s="12"/>
@@ -5802,7 +5775,7 @@
         <v>4.5</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
@@ -5829,28 +5802,28 @@
       <c r="Z38" s="20"/>
       <c r="AA38" s="20"/>
       <c r="AB38" s="20"/>
-      <c r="AC38" s="70" t="s">
-        <v>77</v>
+      <c r="AC38" s="63" t="s">
+        <v>76</v>
       </c>
-      <c r="AD38" s="71"/>
-      <c r="AE38" s="71"/>
-      <c r="AF38" s="71"/>
-      <c r="AG38" s="71"/>
-      <c r="AH38" s="71"/>
-      <c r="AI38" s="71"/>
-      <c r="AJ38" s="71"/>
-      <c r="AK38" s="71"/>
-      <c r="AL38" s="71"/>
-      <c r="AM38" s="71"/>
-      <c r="AN38" s="71"/>
-      <c r="AO38" s="71"/>
-      <c r="AP38" s="71"/>
-      <c r="AQ38" s="71"/>
-      <c r="AR38" s="71"/>
-      <c r="AS38" s="71"/>
-      <c r="AT38" s="71"/>
-      <c r="AU38" s="71"/>
-      <c r="AV38" s="72"/>
+      <c r="AD38" s="64"/>
+      <c r="AE38" s="64"/>
+      <c r="AF38" s="64"/>
+      <c r="AG38" s="64"/>
+      <c r="AH38" s="64"/>
+      <c r="AI38" s="64"/>
+      <c r="AJ38" s="64"/>
+      <c r="AK38" s="64"/>
+      <c r="AL38" s="64"/>
+      <c r="AM38" s="64"/>
+      <c r="AN38" s="64"/>
+      <c r="AO38" s="64"/>
+      <c r="AP38" s="64"/>
+      <c r="AQ38" s="64"/>
+      <c r="AR38" s="64"/>
+      <c r="AS38" s="64"/>
+      <c r="AT38" s="64"/>
+      <c r="AU38" s="64"/>
+      <c r="AV38" s="65"/>
       <c r="AW38" s="12"/>
       <c r="AX38" s="12"/>
       <c r="AY38" s="12"/>
@@ -5942,7 +5915,7 @@
         <v>5</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -6080,7 +6053,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
@@ -6107,28 +6080,28 @@
       <c r="Z40" s="19"/>
       <c r="AA40" s="19"/>
       <c r="AB40" s="19"/>
-      <c r="AC40" s="70" t="s">
-        <v>77</v>
+      <c r="AC40" s="63" t="s">
+        <v>76</v>
       </c>
-      <c r="AD40" s="71"/>
-      <c r="AE40" s="71"/>
-      <c r="AF40" s="71"/>
-      <c r="AG40" s="71"/>
-      <c r="AH40" s="71"/>
-      <c r="AI40" s="71"/>
-      <c r="AJ40" s="71"/>
-      <c r="AK40" s="71"/>
-      <c r="AL40" s="71"/>
-      <c r="AM40" s="71"/>
-      <c r="AN40" s="71"/>
-      <c r="AO40" s="71"/>
-      <c r="AP40" s="71"/>
-      <c r="AQ40" s="71"/>
-      <c r="AR40" s="71"/>
-      <c r="AS40" s="71"/>
-      <c r="AT40" s="71"/>
-      <c r="AU40" s="71"/>
-      <c r="AV40" s="72"/>
+      <c r="AD40" s="64"/>
+      <c r="AE40" s="64"/>
+      <c r="AF40" s="64"/>
+      <c r="AG40" s="64"/>
+      <c r="AH40" s="64"/>
+      <c r="AI40" s="64"/>
+      <c r="AJ40" s="64"/>
+      <c r="AK40" s="64"/>
+      <c r="AL40" s="64"/>
+      <c r="AM40" s="64"/>
+      <c r="AN40" s="64"/>
+      <c r="AO40" s="64"/>
+      <c r="AP40" s="64"/>
+      <c r="AQ40" s="64"/>
+      <c r="AR40" s="64"/>
+      <c r="AS40" s="64"/>
+      <c r="AT40" s="64"/>
+      <c r="AU40" s="64"/>
+      <c r="AV40" s="65"/>
       <c r="AW40" s="21"/>
       <c r="AX40" s="21"/>
       <c r="AY40" s="21"/>
@@ -6220,7 +6193,7 @@
         <v>5.2</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
@@ -6247,28 +6220,28 @@
       <c r="Z41" s="19"/>
       <c r="AA41" s="19"/>
       <c r="AB41" s="19"/>
-      <c r="AC41" s="70" t="s">
-        <v>77</v>
+      <c r="AC41" s="63" t="s">
+        <v>76</v>
       </c>
-      <c r="AD41" s="71"/>
-      <c r="AE41" s="71"/>
-      <c r="AF41" s="71"/>
-      <c r="AG41" s="71"/>
-      <c r="AH41" s="71"/>
-      <c r="AI41" s="71"/>
-      <c r="AJ41" s="71"/>
-      <c r="AK41" s="71"/>
-      <c r="AL41" s="71"/>
-      <c r="AM41" s="71"/>
-      <c r="AN41" s="71"/>
-      <c r="AO41" s="71"/>
-      <c r="AP41" s="71"/>
-      <c r="AQ41" s="71"/>
-      <c r="AR41" s="71"/>
-      <c r="AS41" s="71"/>
-      <c r="AT41" s="71"/>
-      <c r="AU41" s="71"/>
-      <c r="AV41" s="72"/>
+      <c r="AD41" s="64"/>
+      <c r="AE41" s="64"/>
+      <c r="AF41" s="64"/>
+      <c r="AG41" s="64"/>
+      <c r="AH41" s="64"/>
+      <c r="AI41" s="64"/>
+      <c r="AJ41" s="64"/>
+      <c r="AK41" s="64"/>
+      <c r="AL41" s="64"/>
+      <c r="AM41" s="64"/>
+      <c r="AN41" s="64"/>
+      <c r="AO41" s="64"/>
+      <c r="AP41" s="64"/>
+      <c r="AQ41" s="64"/>
+      <c r="AR41" s="64"/>
+      <c r="AS41" s="64"/>
+      <c r="AT41" s="64"/>
+      <c r="AU41" s="64"/>
+      <c r="AV41" s="65"/>
       <c r="AW41" s="21"/>
       <c r="AX41" s="21"/>
       <c r="AY41" s="21"/>
@@ -6360,7 +6333,7 @@
         <v>6</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -6498,7 +6471,7 @@
         <v>6.1</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
@@ -6525,28 +6498,28 @@
       <c r="Z43" s="19"/>
       <c r="AA43" s="19"/>
       <c r="AB43" s="19"/>
-      <c r="AC43" s="70" t="s">
-        <v>77</v>
+      <c r="AC43" s="63" t="s">
+        <v>76</v>
       </c>
-      <c r="AD43" s="71"/>
-      <c r="AE43" s="71"/>
-      <c r="AF43" s="71"/>
-      <c r="AG43" s="71"/>
-      <c r="AH43" s="71"/>
-      <c r="AI43" s="71"/>
-      <c r="AJ43" s="71"/>
-      <c r="AK43" s="71"/>
-      <c r="AL43" s="71"/>
-      <c r="AM43" s="71"/>
-      <c r="AN43" s="71"/>
-      <c r="AO43" s="71"/>
-      <c r="AP43" s="71"/>
-      <c r="AQ43" s="71"/>
-      <c r="AR43" s="71"/>
-      <c r="AS43" s="71"/>
-      <c r="AT43" s="71"/>
-      <c r="AU43" s="71"/>
-      <c r="AV43" s="72"/>
+      <c r="AD43" s="64"/>
+      <c r="AE43" s="64"/>
+      <c r="AF43" s="64"/>
+      <c r="AG43" s="64"/>
+      <c r="AH43" s="64"/>
+      <c r="AI43" s="64"/>
+      <c r="AJ43" s="64"/>
+      <c r="AK43" s="64"/>
+      <c r="AL43" s="64"/>
+      <c r="AM43" s="64"/>
+      <c r="AN43" s="64"/>
+      <c r="AO43" s="64"/>
+      <c r="AP43" s="64"/>
+      <c r="AQ43" s="64"/>
+      <c r="AR43" s="64"/>
+      <c r="AS43" s="64"/>
+      <c r="AT43" s="64"/>
+      <c r="AU43" s="64"/>
+      <c r="AV43" s="65"/>
       <c r="AW43" s="21"/>
       <c r="AX43" s="21"/>
       <c r="AY43" s="21"/>
@@ -6638,7 +6611,7 @@
         <v>6.2</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
@@ -6665,28 +6638,28 @@
       <c r="Z44" s="19"/>
       <c r="AA44" s="19"/>
       <c r="AB44" s="19"/>
-      <c r="AC44" s="70" t="s">
-        <v>77</v>
+      <c r="AC44" s="63" t="s">
+        <v>76</v>
       </c>
-      <c r="AD44" s="71"/>
-      <c r="AE44" s="71"/>
-      <c r="AF44" s="71"/>
-      <c r="AG44" s="71"/>
-      <c r="AH44" s="71"/>
-      <c r="AI44" s="71"/>
-      <c r="AJ44" s="71"/>
-      <c r="AK44" s="71"/>
-      <c r="AL44" s="71"/>
-      <c r="AM44" s="71"/>
-      <c r="AN44" s="71"/>
-      <c r="AO44" s="71"/>
-      <c r="AP44" s="71"/>
-      <c r="AQ44" s="71"/>
-      <c r="AR44" s="71"/>
-      <c r="AS44" s="71"/>
-      <c r="AT44" s="71"/>
-      <c r="AU44" s="71"/>
-      <c r="AV44" s="72"/>
+      <c r="AD44" s="64"/>
+      <c r="AE44" s="64"/>
+      <c r="AF44" s="64"/>
+      <c r="AG44" s="64"/>
+      <c r="AH44" s="64"/>
+      <c r="AI44" s="64"/>
+      <c r="AJ44" s="64"/>
+      <c r="AK44" s="64"/>
+      <c r="AL44" s="64"/>
+      <c r="AM44" s="64"/>
+      <c r="AN44" s="64"/>
+      <c r="AO44" s="64"/>
+      <c r="AP44" s="64"/>
+      <c r="AQ44" s="64"/>
+      <c r="AR44" s="64"/>
+      <c r="AS44" s="64"/>
+      <c r="AT44" s="64"/>
+      <c r="AU44" s="64"/>
+      <c r="AV44" s="65"/>
       <c r="AW44" s="21"/>
       <c r="AX44" s="21"/>
       <c r="AY44" s="21"/>
@@ -6778,7 +6751,7 @@
         <v>6.3</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
@@ -6805,28 +6778,28 @@
       <c r="Z45" s="20"/>
       <c r="AA45" s="20"/>
       <c r="AB45" s="20"/>
-      <c r="AC45" s="70" t="s">
-        <v>77</v>
+      <c r="AC45" s="63" t="s">
+        <v>76</v>
       </c>
-      <c r="AD45" s="71"/>
-      <c r="AE45" s="71"/>
-      <c r="AF45" s="71"/>
-      <c r="AG45" s="71"/>
-      <c r="AH45" s="71"/>
-      <c r="AI45" s="71"/>
-      <c r="AJ45" s="71"/>
-      <c r="AK45" s="71"/>
-      <c r="AL45" s="71"/>
-      <c r="AM45" s="71"/>
-      <c r="AN45" s="71"/>
-      <c r="AO45" s="71"/>
-      <c r="AP45" s="71"/>
-      <c r="AQ45" s="71"/>
-      <c r="AR45" s="71"/>
-      <c r="AS45" s="71"/>
-      <c r="AT45" s="71"/>
-      <c r="AU45" s="71"/>
-      <c r="AV45" s="72"/>
+      <c r="AD45" s="64"/>
+      <c r="AE45" s="64"/>
+      <c r="AF45" s="64"/>
+      <c r="AG45" s="64"/>
+      <c r="AH45" s="64"/>
+      <c r="AI45" s="64"/>
+      <c r="AJ45" s="64"/>
+      <c r="AK45" s="64"/>
+      <c r="AL45" s="64"/>
+      <c r="AM45" s="64"/>
+      <c r="AN45" s="64"/>
+      <c r="AO45" s="64"/>
+      <c r="AP45" s="64"/>
+      <c r="AQ45" s="64"/>
+      <c r="AR45" s="64"/>
+      <c r="AS45" s="64"/>
+      <c r="AT45" s="64"/>
+      <c r="AU45" s="64"/>
+      <c r="AV45" s="65"/>
       <c r="AW45" s="24"/>
       <c r="AX45" s="24"/>
       <c r="AY45" s="24"/>
@@ -6918,7 +6891,7 @@
         <v>7</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -7056,14 +7029,16 @@
         <v>7.1</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
-      <c r="D47" s="67" t="s">
-        <v>89</v>
+      <c r="D47" s="50" t="s">
+        <v>85</v>
       </c>
-      <c r="E47" s="33"/>
-      <c r="F47" s="63" t="s">
-        <v>14</v>
+      <c r="E47" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="F47" s="46" t="s">
+        <v>13</v>
       </c>
       <c r="G47" s="13"/>
       <c r="H47" s="14"/>
@@ -7087,28 +7062,28 @@
       <c r="Z47" s="19"/>
       <c r="AA47" s="19"/>
       <c r="AB47" s="19"/>
-      <c r="AC47" s="70" t="s">
-        <v>77</v>
+      <c r="AC47" s="63" t="s">
+        <v>76</v>
       </c>
-      <c r="AD47" s="71"/>
-      <c r="AE47" s="71"/>
-      <c r="AF47" s="71"/>
-      <c r="AG47" s="71"/>
-      <c r="AH47" s="71"/>
-      <c r="AI47" s="71"/>
-      <c r="AJ47" s="71"/>
-      <c r="AK47" s="71"/>
-      <c r="AL47" s="71"/>
-      <c r="AM47" s="71"/>
-      <c r="AN47" s="71"/>
-      <c r="AO47" s="71"/>
-      <c r="AP47" s="71"/>
-      <c r="AQ47" s="71"/>
-      <c r="AR47" s="71"/>
-      <c r="AS47" s="71"/>
-      <c r="AT47" s="71"/>
-      <c r="AU47" s="71"/>
-      <c r="AV47" s="72"/>
+      <c r="AD47" s="64"/>
+      <c r="AE47" s="64"/>
+      <c r="AF47" s="64"/>
+      <c r="AG47" s="64"/>
+      <c r="AH47" s="64"/>
+      <c r="AI47" s="64"/>
+      <c r="AJ47" s="64"/>
+      <c r="AK47" s="64"/>
+      <c r="AL47" s="64"/>
+      <c r="AM47" s="64"/>
+      <c r="AN47" s="64"/>
+      <c r="AO47" s="64"/>
+      <c r="AP47" s="64"/>
+      <c r="AQ47" s="64"/>
+      <c r="AR47" s="64"/>
+      <c r="AS47" s="64"/>
+      <c r="AT47" s="64"/>
+      <c r="AU47" s="64"/>
+      <c r="AV47" s="65"/>
       <c r="AW47" s="21"/>
       <c r="AX47" s="21"/>
       <c r="AY47" s="21"/>
@@ -7213,14 +7188,16 @@
         <v>7.2</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
-      <c r="D48" s="67" t="s">
-        <v>89</v>
+      <c r="D48" s="50" t="s">
+        <v>85</v>
       </c>
-      <c r="E48" s="33"/>
-      <c r="F48" s="63" t="s">
-        <v>14</v>
+      <c r="E48" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="F48" s="46" t="s">
+        <v>13</v>
       </c>
       <c r="G48" s="13"/>
       <c r="H48" s="14"/>
@@ -7244,28 +7221,28 @@
       <c r="Z48" s="19"/>
       <c r="AA48" s="19"/>
       <c r="AB48" s="19"/>
-      <c r="AC48" s="70" t="s">
-        <v>77</v>
+      <c r="AC48" s="63" t="s">
+        <v>76</v>
       </c>
-      <c r="AD48" s="71"/>
-      <c r="AE48" s="71"/>
-      <c r="AF48" s="71"/>
-      <c r="AG48" s="71"/>
-      <c r="AH48" s="71"/>
-      <c r="AI48" s="71"/>
-      <c r="AJ48" s="71"/>
-      <c r="AK48" s="71"/>
-      <c r="AL48" s="71"/>
-      <c r="AM48" s="71"/>
-      <c r="AN48" s="71"/>
-      <c r="AO48" s="71"/>
-      <c r="AP48" s="71"/>
-      <c r="AQ48" s="71"/>
-      <c r="AR48" s="71"/>
-      <c r="AS48" s="71"/>
-      <c r="AT48" s="71"/>
-      <c r="AU48" s="71"/>
-      <c r="AV48" s="72"/>
+      <c r="AD48" s="64"/>
+      <c r="AE48" s="64"/>
+      <c r="AF48" s="64"/>
+      <c r="AG48" s="64"/>
+      <c r="AH48" s="64"/>
+      <c r="AI48" s="64"/>
+      <c r="AJ48" s="64"/>
+      <c r="AK48" s="64"/>
+      <c r="AL48" s="64"/>
+      <c r="AM48" s="64"/>
+      <c r="AN48" s="64"/>
+      <c r="AO48" s="64"/>
+      <c r="AP48" s="64"/>
+      <c r="AQ48" s="64"/>
+      <c r="AR48" s="64"/>
+      <c r="AS48" s="64"/>
+      <c r="AT48" s="64"/>
+      <c r="AU48" s="64"/>
+      <c r="AV48" s="65"/>
       <c r="AW48" s="21"/>
       <c r="AX48" s="21"/>
       <c r="AY48" s="21"/>
@@ -7370,14 +7347,14 @@
         <v>7.3</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
-      <c r="D49" s="67" t="s">
-        <v>90</v>
+      <c r="D49" s="50" t="s">
+        <v>86</v>
       </c>
       <c r="E49" s="33"/>
-      <c r="F49" s="82" t="s">
-        <v>15</v>
+      <c r="F49" s="61" t="s">
+        <v>14</v>
       </c>
       <c r="G49" s="13"/>
       <c r="H49" s="14"/>
@@ -7401,28 +7378,28 @@
       <c r="Z49" s="20"/>
       <c r="AA49" s="20"/>
       <c r="AB49" s="20"/>
-      <c r="AC49" s="70" t="s">
-        <v>77</v>
+      <c r="AC49" s="63" t="s">
+        <v>76</v>
       </c>
-      <c r="AD49" s="71"/>
-      <c r="AE49" s="71"/>
-      <c r="AF49" s="71"/>
-      <c r="AG49" s="71"/>
-      <c r="AH49" s="71"/>
-      <c r="AI49" s="71"/>
-      <c r="AJ49" s="71"/>
-      <c r="AK49" s="71"/>
-      <c r="AL49" s="71"/>
-      <c r="AM49" s="71"/>
-      <c r="AN49" s="71"/>
-      <c r="AO49" s="71"/>
-      <c r="AP49" s="71"/>
-      <c r="AQ49" s="71"/>
-      <c r="AR49" s="71"/>
-      <c r="AS49" s="71"/>
-      <c r="AT49" s="71"/>
-      <c r="AU49" s="71"/>
-      <c r="AV49" s="72"/>
+      <c r="AD49" s="64"/>
+      <c r="AE49" s="64"/>
+      <c r="AF49" s="64"/>
+      <c r="AG49" s="64"/>
+      <c r="AH49" s="64"/>
+      <c r="AI49" s="64"/>
+      <c r="AJ49" s="64"/>
+      <c r="AK49" s="64"/>
+      <c r="AL49" s="64"/>
+      <c r="AM49" s="64"/>
+      <c r="AN49" s="64"/>
+      <c r="AO49" s="64"/>
+      <c r="AP49" s="64"/>
+      <c r="AQ49" s="64"/>
+      <c r="AR49" s="64"/>
+      <c r="AS49" s="64"/>
+      <c r="AT49" s="64"/>
+      <c r="AU49" s="64"/>
+      <c r="AV49" s="65"/>
       <c r="AW49" s="24"/>
       <c r="AX49" s="24"/>
       <c r="AY49" s="24"/>
@@ -7527,7 +7504,7 @@
         <v>7.4</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
@@ -7554,28 +7531,28 @@
       <c r="Z50" s="22"/>
       <c r="AA50" s="22"/>
       <c r="AB50" s="22"/>
-      <c r="AC50" s="70" t="s">
-        <v>77</v>
+      <c r="AC50" s="63" t="s">
+        <v>76</v>
       </c>
-      <c r="AD50" s="71"/>
-      <c r="AE50" s="71"/>
-      <c r="AF50" s="71"/>
-      <c r="AG50" s="71"/>
-      <c r="AH50" s="71"/>
-      <c r="AI50" s="71"/>
-      <c r="AJ50" s="71"/>
-      <c r="AK50" s="71"/>
-      <c r="AL50" s="71"/>
-      <c r="AM50" s="71"/>
-      <c r="AN50" s="71"/>
-      <c r="AO50" s="71"/>
-      <c r="AP50" s="71"/>
-      <c r="AQ50" s="71"/>
-      <c r="AR50" s="71"/>
-      <c r="AS50" s="71"/>
-      <c r="AT50" s="71"/>
-      <c r="AU50" s="71"/>
-      <c r="AV50" s="72"/>
+      <c r="AD50" s="64"/>
+      <c r="AE50" s="64"/>
+      <c r="AF50" s="64"/>
+      <c r="AG50" s="64"/>
+      <c r="AH50" s="64"/>
+      <c r="AI50" s="64"/>
+      <c r="AJ50" s="64"/>
+      <c r="AK50" s="64"/>
+      <c r="AL50" s="64"/>
+      <c r="AM50" s="64"/>
+      <c r="AN50" s="64"/>
+      <c r="AO50" s="64"/>
+      <c r="AP50" s="64"/>
+      <c r="AQ50" s="64"/>
+      <c r="AR50" s="64"/>
+      <c r="AS50" s="64"/>
+      <c r="AT50" s="64"/>
+      <c r="AU50" s="64"/>
+      <c r="AV50" s="65"/>
       <c r="AW50" s="25"/>
       <c r="AX50" s="25"/>
       <c r="AY50" s="25"/>
@@ -7680,7 +7657,7 @@
         <v>7.5</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
@@ -7707,28 +7684,28 @@
       <c r="Z51" s="20"/>
       <c r="AA51" s="20"/>
       <c r="AB51" s="20"/>
-      <c r="AC51" s="70" t="s">
-        <v>77</v>
+      <c r="AC51" s="63" t="s">
+        <v>76</v>
       </c>
-      <c r="AD51" s="71"/>
-      <c r="AE51" s="71"/>
-      <c r="AF51" s="71"/>
-      <c r="AG51" s="71"/>
-      <c r="AH51" s="71"/>
-      <c r="AI51" s="71"/>
-      <c r="AJ51" s="71"/>
-      <c r="AK51" s="71"/>
-      <c r="AL51" s="71"/>
-      <c r="AM51" s="71"/>
-      <c r="AN51" s="71"/>
-      <c r="AO51" s="71"/>
-      <c r="AP51" s="71"/>
-      <c r="AQ51" s="71"/>
-      <c r="AR51" s="71"/>
-      <c r="AS51" s="71"/>
-      <c r="AT51" s="71"/>
-      <c r="AU51" s="71"/>
-      <c r="AV51" s="72"/>
+      <c r="AD51" s="64"/>
+      <c r="AE51" s="64"/>
+      <c r="AF51" s="64"/>
+      <c r="AG51" s="64"/>
+      <c r="AH51" s="64"/>
+      <c r="AI51" s="64"/>
+      <c r="AJ51" s="64"/>
+      <c r="AK51" s="64"/>
+      <c r="AL51" s="64"/>
+      <c r="AM51" s="64"/>
+      <c r="AN51" s="64"/>
+      <c r="AO51" s="64"/>
+      <c r="AP51" s="64"/>
+      <c r="AQ51" s="64"/>
+      <c r="AR51" s="64"/>
+      <c r="AS51" s="64"/>
+      <c r="AT51" s="64"/>
+      <c r="AU51" s="64"/>
+      <c r="AV51" s="65"/>
       <c r="AW51" s="26"/>
       <c r="AX51" s="26"/>
       <c r="AY51" s="26"/>
@@ -7786,7 +7763,7 @@
         <v>7.6</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D52" s="34"/>
       <c r="E52" s="34"/>
@@ -7813,28 +7790,28 @@
       <c r="Z52" s="1"/>
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
-      <c r="AC52" s="70" t="s">
-        <v>77</v>
+      <c r="AC52" s="63" t="s">
+        <v>76</v>
       </c>
-      <c r="AD52" s="71"/>
-      <c r="AE52" s="71"/>
-      <c r="AF52" s="71"/>
-      <c r="AG52" s="71"/>
-      <c r="AH52" s="71"/>
-      <c r="AI52" s="71"/>
-      <c r="AJ52" s="71"/>
-      <c r="AK52" s="71"/>
-      <c r="AL52" s="71"/>
-      <c r="AM52" s="71"/>
-      <c r="AN52" s="71"/>
-      <c r="AO52" s="71"/>
-      <c r="AP52" s="71"/>
-      <c r="AQ52" s="71"/>
-      <c r="AR52" s="71"/>
-      <c r="AS52" s="71"/>
-      <c r="AT52" s="71"/>
-      <c r="AU52" s="71"/>
-      <c r="AV52" s="72"/>
+      <c r="AD52" s="64"/>
+      <c r="AE52" s="64"/>
+      <c r="AF52" s="64"/>
+      <c r="AG52" s="64"/>
+      <c r="AH52" s="64"/>
+      <c r="AI52" s="64"/>
+      <c r="AJ52" s="64"/>
+      <c r="AK52" s="64"/>
+      <c r="AL52" s="64"/>
+      <c r="AM52" s="64"/>
+      <c r="AN52" s="64"/>
+      <c r="AO52" s="64"/>
+      <c r="AP52" s="64"/>
+      <c r="AQ52" s="64"/>
+      <c r="AR52" s="64"/>
+      <c r="AS52" s="64"/>
+      <c r="AT52" s="64"/>
+      <c r="AU52" s="64"/>
+      <c r="AV52" s="65"/>
     </row>
     <row r="53" spans="1:145" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
@@ -7842,7 +7819,7 @@
         <v>7.7</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D53" s="34"/>
       <c r="E53" s="34"/>
@@ -7869,28 +7846,28 @@
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
-      <c r="AC53" s="70" t="s">
-        <v>77</v>
+      <c r="AC53" s="63" t="s">
+        <v>76</v>
       </c>
-      <c r="AD53" s="71"/>
-      <c r="AE53" s="71"/>
-      <c r="AF53" s="71"/>
-      <c r="AG53" s="71"/>
-      <c r="AH53" s="71"/>
-      <c r="AI53" s="71"/>
-      <c r="AJ53" s="71"/>
-      <c r="AK53" s="71"/>
-      <c r="AL53" s="71"/>
-      <c r="AM53" s="71"/>
-      <c r="AN53" s="71"/>
-      <c r="AO53" s="71"/>
-      <c r="AP53" s="71"/>
-      <c r="AQ53" s="71"/>
-      <c r="AR53" s="71"/>
-      <c r="AS53" s="71"/>
-      <c r="AT53" s="71"/>
-      <c r="AU53" s="71"/>
-      <c r="AV53" s="72"/>
+      <c r="AD53" s="64"/>
+      <c r="AE53" s="64"/>
+      <c r="AF53" s="64"/>
+      <c r="AG53" s="64"/>
+      <c r="AH53" s="64"/>
+      <c r="AI53" s="64"/>
+      <c r="AJ53" s="64"/>
+      <c r="AK53" s="64"/>
+      <c r="AL53" s="64"/>
+      <c r="AM53" s="64"/>
+      <c r="AN53" s="64"/>
+      <c r="AO53" s="64"/>
+      <c r="AP53" s="64"/>
+      <c r="AQ53" s="64"/>
+      <c r="AR53" s="64"/>
+      <c r="AS53" s="64"/>
+      <c r="AT53" s="64"/>
+      <c r="AU53" s="64"/>
+      <c r="AV53" s="65"/>
     </row>
     <row r="54" spans="1:145" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
@@ -47984,6 +47961,65 @@
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="G6:M6"/>
+    <mergeCell ref="N6:T6"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:R3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:R4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="AP6:AV6"/>
+    <mergeCell ref="AW6:BC6"/>
+    <mergeCell ref="BD6:BJ6"/>
+    <mergeCell ref="BK6:BQ6"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="AB6:AH6"/>
+    <mergeCell ref="AI6:AO6"/>
+    <mergeCell ref="DA6:DG6"/>
+    <mergeCell ref="DH6:DN6"/>
+    <mergeCell ref="DO6:DU6"/>
+    <mergeCell ref="DV6:EB6"/>
+    <mergeCell ref="BR6:BX6"/>
+    <mergeCell ref="BY6:CE6"/>
+    <mergeCell ref="CF6:CL6"/>
+    <mergeCell ref="CM6:CS6"/>
+    <mergeCell ref="CT6:CZ6"/>
+    <mergeCell ref="AC14:AV14"/>
+    <mergeCell ref="AC15:AV15"/>
+    <mergeCell ref="AC16:AV16"/>
+    <mergeCell ref="AC19:AV19"/>
+    <mergeCell ref="AC9:AV9"/>
+    <mergeCell ref="AC10:AV10"/>
+    <mergeCell ref="AC11:AV11"/>
+    <mergeCell ref="AC12:AV12"/>
+    <mergeCell ref="AC13:AV13"/>
+    <mergeCell ref="AC20:AV20"/>
+    <mergeCell ref="AC21:AV21"/>
+    <mergeCell ref="AC22:AV22"/>
+    <mergeCell ref="AC23:AV23"/>
+    <mergeCell ref="AC24:AV24"/>
+    <mergeCell ref="AC25:AV25"/>
+    <mergeCell ref="AC26:AV26"/>
+    <mergeCell ref="AC28:AV28"/>
+    <mergeCell ref="AC29:AV29"/>
+    <mergeCell ref="AC30:AV30"/>
+    <mergeCell ref="AC31:AV31"/>
+    <mergeCell ref="AC32:AV32"/>
+    <mergeCell ref="AC34:AV34"/>
+    <mergeCell ref="AC35:AV35"/>
+    <mergeCell ref="AC36:AV36"/>
+    <mergeCell ref="AC37:AV37"/>
+    <mergeCell ref="AC38:AV38"/>
+    <mergeCell ref="AC40:AV40"/>
+    <mergeCell ref="AC41:AV41"/>
+    <mergeCell ref="AC43:AV43"/>
     <mergeCell ref="AC50:AV50"/>
     <mergeCell ref="AC51:AV51"/>
     <mergeCell ref="AC52:AV52"/>
@@ -47993,65 +48029,6 @@
     <mergeCell ref="AC47:AV47"/>
     <mergeCell ref="AC48:AV48"/>
     <mergeCell ref="AC49:AV49"/>
-    <mergeCell ref="AC37:AV37"/>
-    <mergeCell ref="AC38:AV38"/>
-    <mergeCell ref="AC40:AV40"/>
-    <mergeCell ref="AC41:AV41"/>
-    <mergeCell ref="AC43:AV43"/>
-    <mergeCell ref="AC31:AV31"/>
-    <mergeCell ref="AC32:AV32"/>
-    <mergeCell ref="AC34:AV34"/>
-    <mergeCell ref="AC35:AV35"/>
-    <mergeCell ref="AC36:AV36"/>
-    <mergeCell ref="AC25:AV25"/>
-    <mergeCell ref="AC26:AV26"/>
-    <mergeCell ref="AC28:AV28"/>
-    <mergeCell ref="AC29:AV29"/>
-    <mergeCell ref="AC30:AV30"/>
-    <mergeCell ref="AC20:AV20"/>
-    <mergeCell ref="AC21:AV21"/>
-    <mergeCell ref="AC22:AV22"/>
-    <mergeCell ref="AC23:AV23"/>
-    <mergeCell ref="AC24:AV24"/>
-    <mergeCell ref="AC14:AV14"/>
-    <mergeCell ref="AC15:AV15"/>
-    <mergeCell ref="AC16:AV16"/>
-    <mergeCell ref="AC19:AV19"/>
-    <mergeCell ref="AC9:AV9"/>
-    <mergeCell ref="AC10:AV10"/>
-    <mergeCell ref="AC11:AV11"/>
-    <mergeCell ref="AC12:AV12"/>
-    <mergeCell ref="AC13:AV13"/>
-    <mergeCell ref="DA6:DG6"/>
-    <mergeCell ref="DH6:DN6"/>
-    <mergeCell ref="DO6:DU6"/>
-    <mergeCell ref="DV6:EB6"/>
-    <mergeCell ref="BR6:BX6"/>
-    <mergeCell ref="BY6:CE6"/>
-    <mergeCell ref="CF6:CL6"/>
-    <mergeCell ref="CM6:CS6"/>
-    <mergeCell ref="CT6:CZ6"/>
-    <mergeCell ref="AP6:AV6"/>
-    <mergeCell ref="AW6:BC6"/>
-    <mergeCell ref="BD6:BJ6"/>
-    <mergeCell ref="BK6:BQ6"/>
-    <mergeCell ref="U6:AA6"/>
-    <mergeCell ref="AB6:AH6"/>
-    <mergeCell ref="AI6:AO6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:M6"/>
-    <mergeCell ref="N6:T6"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:R3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:R4"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
